--- a/data/hotels_by_city/Houston/Houston_shard_427.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_427.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="415">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55536-d1236786-Reviews-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
   </si>
   <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Katy-Hotels-La-Quinta-Inn-Suites-Brookshire.h2470538.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1151 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r598026797-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>55536</t>
+  </si>
+  <si>
+    <t>1236786</t>
+  </si>
+  <si>
+    <t>598026797</t>
+  </si>
+  <si>
+    <t>07/20/2018</t>
+  </si>
+  <si>
+    <t>Friendly staff</t>
+  </si>
+  <si>
+    <t>Stayed as a group for a wedding. Hotel staff were very accommodating and wanted to make sure we were happy. I had one small issue, and the management stepped right in to solve it. Breakfast was above average, and the morning folks worked hard to replenish items as it got crowded at times. Convenient access from the freeway.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r590777473-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>590777473</t>
+  </si>
+  <si>
+    <t>06/25/2018</t>
+  </si>
+  <si>
+    <t>GREAT STAY!</t>
+  </si>
+  <si>
+    <t>I would recommend this hotel to family and friends.  The staff were extremely friendly and helpful.  The cleanliness of the hotel was great.  I felt relaxed during our visit.  The rooms were nice and the beds were very comfortable.  We also loved the gas station next door.  It is very convenient.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r588733717-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>588733717</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Clean, Neat, Newer Hotel</t>
+  </si>
+  <si>
+    <t>I've stayed here several times. It's a newer hotel with nice clean room. The staff was friendly. Check in and check was done easily. Checkout by app. Breakfast area looked good but I just picked up a piece of fruit. I would stay here again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r580133778-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>580133778</t>
+  </si>
+  <si>
+    <t>05/14/2018</t>
+  </si>
+  <si>
+    <t>Extremely Pet Friendly, Clean Room 3 1/2 stars but not 4</t>
+  </si>
+  <si>
+    <t>Very pet friendly! We were there 4 days, the first week in May. The room was clean &amp; the staff friendly &amp; helpful but this location was not up to the standards of other LQ Hotels we've visited &amp; they appeared to have a staffing issue. 
+The Wi-Fi is horrible &amp; should not even be advertised as an amenity.  
+Breakfast is available at 6am, selection was poor, food was cold &amp; inedible by 6:30, even the coffee in the carafe was cold no matter what time of day. I ended up going over to the donut shop on the other side of the interstate for breakfast sandwiches. The public areas could be cleaner, floors looked unwashed/in need of vacuuming, trash was not emptied after breakfast even though cans were full.  The hotel store was well stocked but the ice cream was too soft &amp; at $5.00 pint too expensive. The weather was beautiful and it would have been nice to sit out by the pool/hot tub except for the fact that Saturday, the people next door had hip-hop music blaring for at least 5 continuous hours. You couldn't hear it inside the hotel but we couldn't help but hear it when we went out with the dog &amp;  it made sitting outside impossible. As an earlier reviewer mentioned, there was a grill out on the patio but we didn't ask to use it. Also both the pool &amp; hot tub...Very pet friendly! We were there 4 days, the first week in May. The room was clean &amp; the staff friendly &amp; helpful but this location was not up to the standards of other LQ Hotels we've visited &amp; they appeared to have a staffing issue. The Wi-Fi is horrible &amp; should not even be advertised as an amenity.  Breakfast is available at 6am, selection was poor, food was cold &amp; inedible by 6:30, even the coffee in the carafe was cold no matter what time of day. I ended up going over to the donut shop on the other side of the interstate for breakfast sandwiches. The public areas could be cleaner, floors looked unwashed/in need of vacuuming, trash was not emptied after breakfast even though cans were full.  The hotel store was well stocked but the ice cream was too soft &amp; at $5.00 pint too expensive. The weather was beautiful and it would have been nice to sit out by the pool/hot tub except for the fact that Saturday, the people next door had hip-hop music blaring for at least 5 continuous hours. You couldn't hear it inside the hotel but we couldn't help but hear it when we went out with the dog &amp;  it made sitting outside impossible. As an earlier reviewer mentioned, there was a grill out on the patio but we didn't ask to use it. Also both the pool &amp; hot tub were green, it may have been too early in the season to open the pools. We would rather stay at our usual stop, but if it isn't available, this is an acceptable option. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Very pet friendly! We were there 4 days, the first week in May. The room was clean &amp; the staff friendly &amp; helpful but this location was not up to the standards of other LQ Hotels we've visited &amp; they appeared to have a staffing issue. 
+The Wi-Fi is horrible &amp; should not even be advertised as an amenity.  
+Breakfast is available at 6am, selection was poor, food was cold &amp; inedible by 6:30, even the coffee in the carafe was cold no matter what time of day. I ended up going over to the donut shop on the other side of the interstate for breakfast sandwiches. The public areas could be cleaner, floors looked unwashed/in need of vacuuming, trash was not emptied after breakfast even though cans were full.  The hotel store was well stocked but the ice cream was too soft &amp; at $5.00 pint too expensive. The weather was beautiful and it would have been nice to sit out by the pool/hot tub except for the fact that Saturday, the people next door had hip-hop music blaring for at least 5 continuous hours. You couldn't hear it inside the hotel but we couldn't help but hear it when we went out with the dog &amp;  it made sitting outside impossible. As an earlier reviewer mentioned, there was a grill out on the patio but we didn't ask to use it. Also both the pool &amp; hot tub...Very pet friendly! We were there 4 days, the first week in May. The room was clean &amp; the staff friendly &amp; helpful but this location was not up to the standards of other LQ Hotels we've visited &amp; they appeared to have a staffing issue. The Wi-Fi is horrible &amp; should not even be advertised as an amenity.  Breakfast is available at 6am, selection was poor, food was cold &amp; inedible by 6:30, even the coffee in the carafe was cold no matter what time of day. I ended up going over to the donut shop on the other side of the interstate for breakfast sandwiches. The public areas could be cleaner, floors looked unwashed/in need of vacuuming, trash was not emptied after breakfast even though cans were full.  The hotel store was well stocked but the ice cream was too soft &amp; at $5.00 pint too expensive. The weather was beautiful and it would have been nice to sit out by the pool/hot tub except for the fact that Saturday, the people next door had hip-hop music blaring for at least 5 continuous hours. You couldn't hear it inside the hotel but we couldn't help but hear it when we went out with the dog &amp;  it made sitting outside impossible. As an earlier reviewer mentioned, there was a grill out on the patio but we didn't ask to use it. Also both the pool &amp; hot tub were green, it may have been too early in the season to open the pools. We would rather stay at our usual stop, but if it isn't available, this is an acceptable option. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r577003034-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>577003034</t>
+  </si>
+  <si>
+    <t>04/30/2018</t>
+  </si>
+  <si>
+    <t>Enjoyable stay!!</t>
+  </si>
+  <si>
+    <t>I had the pleasure of staying at the Brookshire location for 3 days/nights the week of 4/23/18. Fantastic service from front desk staff to room staff!! The rooms were very clean along with main lobby. I did not have opportunity to use pool area but noticed how clean that area was. They also had a grill by pool area that guest could cook their own food, which I thought was a nice extra that the hotel offered their guest. I Would recommend to family and friends!!</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r574353362-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>574353362</t>
+  </si>
+  <si>
+    <t>04/19/2018</t>
+  </si>
+  <si>
+    <t>VERY DISSAPOINTED</t>
+  </si>
+  <si>
+    <t>I absolutely LOVE LaQuinta franchise.  This hotel however was not my pick.  I had to wait almost 30 minutes before I was checked in.  Not because they were busy but because no one was behind the counter.  My room was not clean and the bed was uncomfortable.  I can not in good conscious recommend this particular hotel.  The franchise overall has been amazing but not this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>LQ Customer Car... T, LQ Customer Care at La Quinta Inn &amp; Suites Brookshire, responded to this reviewResponded April 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2018</t>
+  </si>
+  <si>
+    <t>I absolutely LOVE LaQuinta franchise.  This hotel however was not my pick.  I had to wait almost 30 minutes before I was checked in.  Not because they were busy but because no one was behind the counter.  My room was not clean and the bed was uncomfortable.  I can not in good conscious recommend this particular hotel.  The franchise overall has been amazing but not this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r558878630-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>558878630</t>
+  </si>
+  <si>
+    <t>02/06/2018</t>
+  </si>
+  <si>
+    <t>Lovely pleasure</t>
+  </si>
+  <si>
+    <t>Upon visiting this establishment I must say what an awesome place the hotel staff is great the Decour inside is lovely breakfast is good the beds are marvelous and the hot tub is totally magical… Make sure if you visit here you’re looking for a great night sleep because you will find it here and if you’re looking for some relaxation get into that hot tub and it’ll take your breath away</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r553166248-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>553166248</t>
+  </si>
+  <si>
+    <t>01/11/2018</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Great Stay Friendly Staff. Loved The Beds Big and Comfy. Breakfast was ok. Will love to stay again when im im town! Amd will be even better when the gas station in front opens it will be very convenient!!</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r548034930-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>548034930</t>
+  </si>
+  <si>
+    <t>12/19/2017</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r535488076-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>535488076</t>
+  </si>
+  <si>
+    <t>10/23/2017</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r529778620-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>529778620</t>
+  </si>
+  <si>
+    <t>10/03/2017</t>
+  </si>
+  <si>
+    <t>don't bother</t>
+  </si>
+  <si>
+    <t>only thing I enjoyed about this hotel was color framed photos on the walls of various Texas scenes.  All else was dingy and depressing.  Institutional colors of paintwork on the walls and doors.  Dirty and old carpeting.  Poor choice of TV channels.  Poor choice of breakfast items.  Limited parking facilities.  Poorly lit when approaching at nightMoreShow less</t>
+  </si>
+  <si>
+    <t>BrookshireGM6245, General Manager at La Quinta Inn &amp; Suites Brookshire, responded to this reviewResponded October 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 5, 2017</t>
+  </si>
+  <si>
+    <t>only thing I enjoyed about this hotel was color framed photos on the walls of various Texas scenes.  All else was dingy and depressing.  Institutional colors of paintwork on the walls and doors.  Dirty and old carpeting.  Poor choice of TV channels.  Poor choice of breakfast items.  Limited parking facilities.  Poorly lit when approaching at nightMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r528508812-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>528508812</t>
+  </si>
+  <si>
+    <t>09/30/2017</t>
+  </si>
+  <si>
+    <t>Brookshire best</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was in the area after hurricane Harvey and checked in this la quinta. Even though they were quite busy with area flooded people left homeless,  they were able to help us out as well.  Nice to see they had there breakfast rooms also set up with donations and extra meals for people in need. </t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r510942799-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>510942799</t>
+  </si>
+  <si>
+    <t>08/10/2017</t>
+  </si>
+  <si>
+    <t>Didn't get to stay</t>
+  </si>
+  <si>
+    <t>I attempted to stay here for my sister’s wedding.  I checked in, went to my room and the key wouldn’t open the door.  I tried multiple times and then tried the other key.  It also did not work.  I went downstairs to get the staff whom also could not open the door.  She went looking for a machine to reset the door but couldn’t find it so she offered me another room and a discount.  She showed me two rooms and I picked one.  I started to get settled in……my kids lay down on the bed and 5 minutes later yell, “there’s a roach on our bed!” I was pretty much done at this time.  I went downstairs and told them I will drive back to Houston, rather than spending the night here.  In the process of packing our stuff up, I saw three other roaches!!!!! I don’t do ROACHES! Really disgusting! Please handle your roach problem.  The staff was really nice about everything though, that's why they get the second star.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>LQ Customer Car... T, LQ Customer Care at La Quinta Inn &amp; Suites Brookshire, responded to this reviewResponded August 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2017</t>
+  </si>
+  <si>
+    <t>I attempted to stay here for my sister’s wedding.  I checked in, went to my room and the key wouldn’t open the door.  I tried multiple times and then tried the other key.  It also did not work.  I went downstairs to get the staff whom also could not open the door.  She went looking for a machine to reset the door but couldn’t find it so she offered me another room and a discount.  She showed me two rooms and I picked one.  I started to get settled in……my kids lay down on the bed and 5 minutes later yell, “there’s a roach on our bed!” I was pretty much done at this time.  I went downstairs and told them I will drive back to Houston, rather than spending the night here.  In the process of packing our stuff up, I saw three other roaches!!!!! I don’t do ROACHES! Really disgusting! Please handle your roach problem.  The staff was really nice about everything though, that's why they get the second star.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r505571105-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>505571105</t>
+  </si>
+  <si>
+    <t>07/25/2017</t>
+  </si>
+  <si>
+    <t>Nice Motel</t>
+  </si>
+  <si>
+    <t>Just remodeled with better furnishing than found in other motels. A bit pricey but its location is great being easy on/off for I-10 freeway users. Great breakfast menu and nice pool. My only complaints were the noisy air conditioner, vending was a not central to the rooms and TV reception was not the best.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r501496214-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>501496214</t>
+  </si>
+  <si>
+    <t>07/12/2017</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>La Quinta can't be beat for the value.  Very clean rooms and great customer service.  The Wi-Fi is fast and easy to access.  There is also a clean pool and work-out room with handy access.  The breakfast has a decent selection and fresh fruit and juice.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r495266757-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>495266757</t>
+  </si>
+  <si>
+    <t>06/22/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sons wedding week end </t>
+  </si>
+  <si>
+    <t>Pee on pull out sofa in one room, exposed electrical outlets in another offer and gave thid room a credit then took it back. Now offer 20%. Kids could have been shocked. No sofa bed made in another room they were aware would be used.  Parking was horrible.  We booked the whole hotel and paid way to much for block. Priced $25 less on this site.  I sent others to Holiday inn express up the road. They got a better price and much nicer hotel.  Gm is worthless.  So happy I never have to stay here again.  Staff was very nice though. Hats off to them MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>LQ Customer Car... T, LQ Customer Care at La Quinta Inn &amp; Suites Brookshire, responded to this reviewResponded June 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2017</t>
+  </si>
+  <si>
+    <t>Pee on pull out sofa in one room, exposed electrical outlets in another offer and gave thid room a credit then took it back. Now offer 20%. Kids could have been shocked. No sofa bed made in another room they were aware would be used.  Parking was horrible.  We booked the whole hotel and paid way to much for block. Priced $25 less on this site.  I sent others to Holiday inn express up the road. They got a better price and much nicer hotel.  Gm is worthless.  So happy I never have to stay here again.  Staff was very nice though. Hats off to them More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r488420372-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>488420372</t>
+  </si>
+  <si>
+    <t>05/28/2017</t>
+  </si>
+  <si>
+    <t>Room was ok but...</t>
+  </si>
+  <si>
+    <t>The room itself was ok.  No problems but the breakfast was another story.  Breakfast wasn't over till 9.  By 8 there were no more biscuits OR waffle mix.  Out of everything but gravy.  No milk for cereal, no juice, no waffles, no sausage, no biscuits!  Nothing!!  Don't expect to have a quick bite in the morning here because they don't have enough food for the guests.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>LQ Customer Car... T, LQ Customer Care  at La Quinta Inn &amp; Suites Brookshire, responded to this reviewResponded June 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2017</t>
+  </si>
+  <si>
+    <t>The room itself was ok.  No problems but the breakfast was another story.  Breakfast wasn't over till 9.  By 8 there were no more biscuits OR waffle mix.  Out of everything but gravy.  No milk for cereal, no juice, no waffles, no sausage, no biscuits!  Nothing!!  Don't expect to have a quick bite in the morning here because they don't have enough food for the guests.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r488229397-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>488229397</t>
+  </si>
+  <si>
+    <t>05/27/2017</t>
+  </si>
+  <si>
+    <t>The FRIENDLIEST Staff!!!</t>
+  </si>
+  <si>
+    <t>I absolutely LOVE staying here!  The staff is SO friendly, accommodating and courteous!  They are currently upgrading everything and it looks beautiful!  The breakfast is wonderful (especially the waffles!!) and the location is great!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r456839305-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>456839305</t>
+  </si>
+  <si>
+    <t>02/02/2017</t>
+  </si>
+  <si>
+    <t>very pleasant experience</t>
+  </si>
+  <si>
+    <t>great room neatly kept very comfortable bed plenty of parking close staff very friendly and helpful could have used a little more variety for breakfast.  good location and easy access to Houston area without all the congestion</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r449748125-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>449748125</t>
+  </si>
+  <si>
+    <t>01/05/2017</t>
+  </si>
+  <si>
+    <t>Better eat breakfast early!</t>
+  </si>
+  <si>
+    <t>The staff was very nice and our room was comfortable and smelled clean.  We had been driving over 8 hours and it was great to stay!  I agree with another reviewer about the breakfast.  My goodness there was a stampede to the dining area!  The items weren't replenished right away and I was concerned that the bread was left in the original bags and people had to dig in the bag with their hands.  After several people's hands were in the bags, I decided to just get a waffle, but there was no more mix.Still a nice place to stay after a very long day!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r449786807-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>449786807</t>
+  </si>
+  <si>
+    <t>01/03/2017</t>
+  </si>
+  <si>
+    <t>hotel</t>
+  </si>
+  <si>
+    <t>it was very good stay on this hotel, nice bed rooms, comfortable beds, clean showers. Good housekeeping and very easy access from the hwy. Good service on the front desk, very clean hotel nice to stay on I will recommend it for any frends I got....</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r427564084-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>427564084</t>
+  </si>
+  <si>
+    <t>10/06/2016</t>
+  </si>
+  <si>
+    <t>Low on grub</t>
+  </si>
+  <si>
+    <t>The hotel was excellent and the staff was wonderful. But make sure you go to the buffet in the morning early or you won't get anything to eat. The rooms were modern and clean and the bed was comfortable.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r408676972-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>408676972</t>
+  </si>
+  <si>
+    <t>08/22/2016</t>
+  </si>
+  <si>
+    <t>Extended Stay for Relocation to the Area</t>
+  </si>
+  <si>
+    <t>Im writing this review after being here a week with 2 more weeks to go. This LaQuinta could definitely use some maintenance and some cleaning. After a week of cold breakfasts (hard boiled eggs &amp; cereal) we finally got some eggs and sausage. The whole hotel could use some cleaning (dust everywhere, bugs in thermostat, dining area chairs filthy) and some upgrades (broken room chair). It's  great that they are pet friendly but no one has checked the dog do-do area in a week. We had our own do-do bags but their bin has been empty and the trash receptacle full.  Although there are many things that could be approved upon we are having a comfortable stay and the girl at the front desk when we checked in went out of her way to accommodate us with an early checkin.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>awlq, Director of Sales at La Quinta Inn &amp; Suites Brookshire, responded to this reviewResponded August 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2016</t>
+  </si>
+  <si>
+    <t>Im writing this review after being here a week with 2 more weeks to go. This LaQuinta could definitely use some maintenance and some cleaning. After a week of cold breakfasts (hard boiled eggs &amp; cereal) we finally got some eggs and sausage. The whole hotel could use some cleaning (dust everywhere, bugs in thermostat, dining area chairs filthy) and some upgrades (broken room chair). It's  great that they are pet friendly but no one has checked the dog do-do area in a week. We had our own do-do bags but their bin has been empty and the trash receptacle full.  Although there are many things that could be approved upon we are having a comfortable stay and the girl at the front desk when we checked in went out of her way to accommodate us with an early checkin.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r374725798-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>374725798</t>
+  </si>
+  <si>
+    <t>05/16/2016</t>
+  </si>
+  <si>
+    <t>tony us traveller</t>
+  </si>
+  <si>
+    <t>comfortable, clean accessible to highway  i was able to conduct my business in and around the Brookshire area and yet close enough to Katy and Houston for shopping and dining  plenty of parking and complimentary breakfast was  alwys stocked</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r353444582-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>353444582</t>
+  </si>
+  <si>
+    <t>03/06/2016</t>
+  </si>
+  <si>
+    <t>Clean, modern decor, convenient location</t>
+  </si>
+  <si>
+    <t>One of the better La Quinta's I've stayed at with my 2 dogs on a cross-country move.  There was chipping paint on the bathtub, but that's not significant in my opinion.  The staff was accommodating and gave me a first floor room near an exit door closest to the dog walk area.  Interestingly, there are horses next door which are very sweet and friendly.  There are also dogs roaming...obviously not the fault of the hotel.  It made me a little nervous walking my dogs, but no incidents, so not a big deal.  I would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r345714115-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>345714115</t>
+  </si>
+  <si>
+    <t>02/07/2016</t>
+  </si>
+  <si>
+    <t>Customer service above &amp; Beyond</t>
+  </si>
+  <si>
+    <t>We were traveling from LA to Seguin, TX on Feb. 2 and ran into heavy traffic with delays that put us two hour behind our estimated arrival time. At 6:30 PM we cancelled our reservation in Seguin, TX and they graciously accepted our cancellation with no arguments or penalty. As a result we felt we owed the chain a visit at a motel closer to where we were and chose to stay here in Brookshire. Valerie greeted me and was gracious and accommodating. She offered us a suite at a comparable price to what we had a reservation for in Seguin. The room was immaculate, included a microwave &amp; refrig and was exemplary. Valerie then called to make sure all was OK. LaQuinta should be proud to have employees that go out of their way to make sure their guests are satisfied and properly attended to. We appreciated the concern Valerie had for us and the hotel was quite satisfactory in all its amenities offered. I will make it a point when staying in the Houston area to stay at this motel again. BTW: Our dog was content here also.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>We were traveling from LA to Seguin, TX on Feb. 2 and ran into heavy traffic with delays that put us two hour behind our estimated arrival time. At 6:30 PM we cancelled our reservation in Seguin, TX and they graciously accepted our cancellation with no arguments or penalty. As a result we felt we owed the chain a visit at a motel closer to where we were and chose to stay here in Brookshire. Valerie greeted me and was gracious and accommodating. She offered us a suite at a comparable price to what we had a reservation for in Seguin. The room was immaculate, included a microwave &amp; refrig and was exemplary. Valerie then called to make sure all was OK. LaQuinta should be proud to have employees that go out of their way to make sure their guests are satisfied and properly attended to. We appreciated the concern Valerie had for us and the hotel was quite satisfactory in all its amenities offered. I will make it a point when staying in the Houston area to stay at this motel again. BTW: Our dog was content here also.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r344428028-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>344428028</t>
+  </si>
+  <si>
+    <t>02/01/2016</t>
+  </si>
+  <si>
+    <t>Nice for the price</t>
+  </si>
+  <si>
+    <t>very clean, very friendly staff, nice breakfast, was able to park close to our room. close to our destination. first floor was very noisy though...just don't stay on the first floor or near the elevators</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r332688667-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>332688667</t>
+  </si>
+  <si>
+    <t>12/14/2015</t>
+  </si>
+  <si>
+    <t>Clean and Nice beds</t>
+  </si>
+  <si>
+    <t>Stayed there for 3 nights.Simple and quiet place, you need a car to live there as there is no Restaurant in the place, breakfast is however ok, scrambled eggs and a reasonable amount of bread and others. Reasonable priced.Will I com back? Since I usually are not renting a car on my travels, probably not. There are no taxis available in the neighborhood. But I liked the place.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r320828135-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>320828135</t>
+  </si>
+  <si>
+    <t>10/21/2015</t>
+  </si>
+  <si>
+    <t>Poor location</t>
+  </si>
+  <si>
+    <t>It's conveniently located off I-35S for passing thru Austin.  Not a good area.  Staff very nice, room clean, bed comfortable, and bathroom large.  Waffles and sausage are hot items for breakfast.  No computer for guests.  All rooms are entered from outside.  Stairs only for second floor.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>awlq, Manager at La Quinta Inn &amp; Suites Brookshire, responded to this reviewResponded October 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2015</t>
+  </si>
+  <si>
+    <t>It's conveniently located off I-35S for passing thru Austin.  Not a good area.  Staff very nice, room clean, bed comfortable, and bathroom large.  Waffles and sausage are hot items for breakfast.  No computer for guests.  All rooms are entered from outside.  Stairs only for second floor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r311917068-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>311917068</t>
+  </si>
+  <si>
+    <t>09/19/2015</t>
+  </si>
+  <si>
+    <t>Service above and beyond</t>
+  </si>
+  <si>
+    <t>Hotel is clean and neat, personnel are personable and willing to help.  My car had an air dam beneath the engine that began thumping as it tried unsuccessfully to escape the underside of the car.  When we got to the Hotel, the receptionist crawled under the car to verify the problem.  A mechanic's daughter, she got me the tools I needed to remove the offending piece of plastic.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r285774061-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>285774061</t>
+  </si>
+  <si>
+    <t>07/05/2015</t>
+  </si>
+  <si>
+    <t>OK visit</t>
+  </si>
+  <si>
+    <t>Traveling from Las Vegas to Orlando and we wanted to stay outside of Houston because we didn't want to drive much more in the dark. I looked up this location and drove in with no reservations and were able to get two rooms (one king and one with two queen beds).
+Lobby - is very nice. 
+Receptionist- very nice young lady who checked us in.
+Pet Friendly - there is no additional charge for pets. They do not have specific rooms for pets but they said they do a deep clean if you stay with pets.
+Hallway and Doors (3rd floor) - very scuffed and missing paint.
+Room 1 - King Room was clean.
+Room 2 - the bed I picked (closest to the wall) upon inspection had a dirty blanket so in hopes of it being just difficult to wash, I just pulled it off but that just uncovered more sheets that were dirty. I just went downstairs and asked for new bedding so I could change it myself. The receptionist came up to look over the room. After I changed the sheets the rest of the room was fine. (photos of room are the room described)
+Lighting - 2 of the 3 lamps were unplugged and I had to plug them in to get light in the room.
+AC - this room was very muggy and the AC didn't seem to cool very well but it was good...Traveling from Las Vegas to Orlando and we wanted to stay outside of Houston because we didn't want to drive much more in the dark. I looked up this location and drove in with no reservations and were able to get two rooms (one king and one with two queen beds).Lobby - is very nice. Receptionist- very nice young lady who checked us in.Pet Friendly - there is no additional charge for pets. They do not have specific rooms for pets but they said they do a deep clean if you stay with pets.Hallway and Doors (3rd floor) - very scuffed and missing paint.Room 1 - King Room was clean.Room 2 - the bed I picked (closest to the wall) upon inspection had a dirty blanket so in hopes of it being just difficult to wash, I just pulled it off but that just uncovered more sheets that were dirty. I just went downstairs and asked for new bedding so I could change it myself. The receptionist came up to look over the room. After I changed the sheets the rest of the room was fine. (photos of room are the room described)Lighting - 2 of the 3 lamps were unplugged and I had to plug them in to get light in the room.AC - this room was very muggy and the AC didn't seem to cool very well but it was good enough for one night stay.Breakfast - not enjoyable. Below average. I would skip out on this if possible.MoreShow less</t>
+  </si>
+  <si>
+    <t>Traveling from Las Vegas to Orlando and we wanted to stay outside of Houston because we didn't want to drive much more in the dark. I looked up this location and drove in with no reservations and were able to get two rooms (one king and one with two queen beds).
+Lobby - is very nice. 
+Receptionist- very nice young lady who checked us in.
+Pet Friendly - there is no additional charge for pets. They do not have specific rooms for pets but they said they do a deep clean if you stay with pets.
+Hallway and Doors (3rd floor) - very scuffed and missing paint.
+Room 1 - King Room was clean.
+Room 2 - the bed I picked (closest to the wall) upon inspection had a dirty blanket so in hopes of it being just difficult to wash, I just pulled it off but that just uncovered more sheets that were dirty. I just went downstairs and asked for new bedding so I could change it myself. The receptionist came up to look over the room. After I changed the sheets the rest of the room was fine. (photos of room are the room described)
+Lighting - 2 of the 3 lamps were unplugged and I had to plug them in to get light in the room.
+AC - this room was very muggy and the AC didn't seem to cool very well but it was good...Traveling from Las Vegas to Orlando and we wanted to stay outside of Houston because we didn't want to drive much more in the dark. I looked up this location and drove in with no reservations and were able to get two rooms (one king and one with two queen beds).Lobby - is very nice. Receptionist- very nice young lady who checked us in.Pet Friendly - there is no additional charge for pets. They do not have specific rooms for pets but they said they do a deep clean if you stay with pets.Hallway and Doors (3rd floor) - very scuffed and missing paint.Room 1 - King Room was clean.Room 2 - the bed I picked (closest to the wall) upon inspection had a dirty blanket so in hopes of it being just difficult to wash, I just pulled it off but that just uncovered more sheets that were dirty. I just went downstairs and asked for new bedding so I could change it myself. The receptionist came up to look over the room. After I changed the sheets the rest of the room was fine. (photos of room are the room described)Lighting - 2 of the 3 lamps were unplugged and I had to plug them in to get light in the room.AC - this room was very muggy and the AC didn't seem to cool very well but it was good enough for one night stay.Breakfast - not enjoyable. Below average. I would skip out on this if possible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r284626235-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>284626235</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Nice enough</t>
+  </si>
+  <si>
+    <t>We were in town for a wedding. This is where the bridal party booked a block of rooms for the guests. The hotel was basically clean and cool (air conditioning). The rooms were fine. Nice size.  Bathrooms were also a nice size but could use a bit of freshening up.  Nice stay overall</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r281809785-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>281809785</t>
+  </si>
+  <si>
+    <t>06/21/2015</t>
+  </si>
+  <si>
+    <t>One night stay</t>
+  </si>
+  <si>
+    <t>I have no idea of why this location is listed as a new hotel on the LQ website. This is the worst LQ hotel that I've ever stayed at. Our family only stays at LQ and I am very disappointed. This building is dirty and is in disrepair. Not what I expected from the LaQuinta brand. We had the most issues in our bathroom. The caulking/paint is damaged, 2 towels had stains on them and the shower head was deplorable. We asked for extra towels and the front desk wrote that down in front of us. Trust me the towels I own are of much better quality. I was not trying to steal those towels. I was very disappointed with the breakfast service. Only offering 6 tables to 20+ Saturday morning families makes for an uncomfortable and stressful experience. I had to go to the front desk to see if additional seating was offered, had to ask them to clean the tables and had to ask them to refill the food options. They ran out of multiple options with an hour still left in the service. Staff were courteous and accomodating during all interactions. I am on vacation. I don't want to have to clean! Will not return. Would steer any friends/family away from this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>awlq, General Manager at La Quinta Inn &amp; Suites Brookshire, responded to this reviewResponded June 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2015</t>
+  </si>
+  <si>
+    <t>I have no idea of why this location is listed as a new hotel on the LQ website. This is the worst LQ hotel that I've ever stayed at. Our family only stays at LQ and I am very disappointed. This building is dirty and is in disrepair. Not what I expected from the LaQuinta brand. We had the most issues in our bathroom. The caulking/paint is damaged, 2 towels had stains on them and the shower head was deplorable. We asked for extra towels and the front desk wrote that down in front of us. Trust me the towels I own are of much better quality. I was not trying to steal those towels. I was very disappointed with the breakfast service. Only offering 6 tables to 20+ Saturday morning families makes for an uncomfortable and stressful experience. I had to go to the front desk to see if additional seating was offered, had to ask them to clean the tables and had to ask them to refill the food options. They ran out of multiple options with an hour still left in the service. Staff were courteous and accomodating during all interactions. I am on vacation. I don't want to have to clean! Will not return. Would steer any friends/family away from this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r271543969-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>271543969</t>
+  </si>
+  <si>
+    <t>05/12/2015</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>This hotel is fantastic.  Very clean, nice and accommodating staff.  I booked in Brookshire versus Katy,Texas because the price was appealing and its only 7 miles away.  So glad I chose this hotel.  I will definitely return!</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r250504440-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>250504440</t>
+  </si>
+  <si>
+    <t>01/22/2015</t>
+  </si>
+  <si>
+    <t>Very Nice Stay</t>
+  </si>
+  <si>
+    <t>We were traveling through and needed a place to stop and rest and get a good nights rest. This is a 2 star hotel and it was clean and very comfortable. We met Eric at the desk as we checked in and he was very friendly and helpful. The room was pleasant, the bed was comfortable and bathrooms were clean. We thought the hotel was a little pricey for a 2 star hotel but it was worth the money. We would stay here again.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r250277553-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>250277553</t>
+  </si>
+  <si>
+    <t>01/20/2015</t>
+  </si>
+  <si>
+    <t>Loved it-wish we could of stayed longer</t>
+  </si>
+  <si>
+    <t>I absolutely loved this hotel. Super nice staff! The location was secluded and beautiful yet still convenient. The room was amazingly clean and perfect even for a picky mom like my self. There breakfast was way better than I expected and the beds were comfortable.. My self and family were just passing through and needed to stop and rest but if we weren't in mid trip to Beaumont I wouldn't have minded staying longer to relax at this great hotel that was worth every penny in my opinion. Good job to whoever own/manages this hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r235988165-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>235988165</t>
+  </si>
+  <si>
+    <t>10/22/2014</t>
+  </si>
+  <si>
+    <t>My stay at Brookshire</t>
+  </si>
+  <si>
+    <t>The hotel in Brookshire is perfect for us when we visit The Brookwood Community. As I scored in the questionnaire, everything about the Brookshire hotel was well above good. We enjoyed our short stay there and found everything most agreeable.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r226682972-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>226682972</t>
+  </si>
+  <si>
+    <t>09/03/2014</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r218808224-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>218808224</t>
+  </si>
+  <si>
+    <t>07/30/2014</t>
+  </si>
+  <si>
+    <t>Impressed</t>
+  </si>
+  <si>
+    <t>This was, by far, the best La Quinta that I have ever stayed in.  It is far enough from the highway that the noise is little to none.  Also, it is nice being within 5-10 minutes of Katy, Texas for shopping if you want.  The rooms were clean and well organized.  The front desk was very nice and extremely helpful when I checked in.  He also recommended an awesome place to eat.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r217368588-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>217368588</t>
+  </si>
+  <si>
+    <t>07/18/2014</t>
+  </si>
+  <si>
+    <t>Excellent Stay</t>
+  </si>
+  <si>
+    <t>My experience with the LaQuinta in Brookshire,TX was very good, I have stayed there several times and I am very happy, I will continue to stay there when my needs arise.  Good Job and thank you. I will tell all my friends and family about you and refer you to anyone who needs a hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r205738850-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>205738850</t>
+  </si>
+  <si>
+    <t>05/15/2014</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r201635012-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>201635012</t>
+  </si>
+  <si>
+    <t>04/15/2014</t>
+  </si>
+  <si>
+    <t>Definitely fit the bill!</t>
+  </si>
+  <si>
+    <t>Very comfortable stay. Staff was courteous. Bed was comfortable. Our room was located next to the main entrance, which I thought might be loud, but it was not an issue. Breakfast staff was wonderful - breakfast was ready early for MS150 riders - that was an unexpected blessing. However, it would have been nice to know ahead about this. Probably a communication issue between the shifts.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r196083289-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>196083289</t>
+  </si>
+  <si>
+    <t>03/03/2014</t>
+  </si>
+  <si>
+    <t>Nice Clean Hotel</t>
+  </si>
+  <si>
+    <t>The room was updated nicely. I loved the recliner in the room for reading. The wifi was running slow. The breakfast had hot items as well as cereals and muffins. I missed not having yogurt that most of the other La Quintas have.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r195288669-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>195288669</t>
+  </si>
+  <si>
+    <t>02/24/2014</t>
+  </si>
+  <si>
+    <t>Texas Experience</t>
+  </si>
+  <si>
+    <t>Short notice stay, staff was extremely helpful.  Knew the area well and gave great directions.  Room was clean and in good condition.  Only issue was minor, breakfast did not have fresh fruit, otherwise it was the standard.  Would stay here again without question.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r193564022-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>193564022</t>
+  </si>
+  <si>
+    <t>02/09/2014</t>
+  </si>
+  <si>
+    <t>Stay Away</t>
+  </si>
+  <si>
+    <t>I have stayed at several La Quintas with no complaints. This was by far the worst hotel I have ever stayed out. After reading the reviews on this site, I thought I had found a good hotel to stay at. I was wrong. If you don't want to hear drunk people all night long, then stay away!!!!!! There was a huge group staying at this hotel for a wedding. They were loud and constantly making noises throughout the two nights I was there. The first night, I complained to the manager, and he reassured me that it would not happen again. Well, the party continued the following night. Unfortunately, the hotel can't choose who gets to stay there. I will not be returning.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed at several La Quintas with no complaints. This was by far the worst hotel I have ever stayed out. After reading the reviews on this site, I thought I had found a good hotel to stay at. I was wrong. If you don't want to hear drunk people all night long, then stay away!!!!!! There was a huge group staying at this hotel for a wedding. They were loud and constantly making noises throughout the two nights I was there. The first night, I complained to the manager, and he reassured me that it would not happen again. Well, the party continued the following night. Unfortunately, the hotel can't choose who gets to stay there. I will not be returning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r187138600-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>187138600</t>
+  </si>
+  <si>
+    <t>12/08/2013</t>
+  </si>
+  <si>
+    <t>The Dog Pen</t>
+  </si>
+  <si>
+    <t>Smells like dog and dog poo. Constant barking. They allow pets but don't care if they are responsible or not. Apparently they don't clean the carpets very well after the dogs leave.  The service was fine but if you don't like smelling or listening to dogs then don't stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>awlq, Manager at La Quinta Inn &amp; Suites Brookshire, responded to this reviewResponded December 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 11, 2013</t>
+  </si>
+  <si>
+    <t>Smells like dog and dog poo. Constant barking. They allow pets but don't care if they are responsible or not. Apparently they don't clean the carpets very well after the dogs leave.  The service was fine but if you don't like smelling or listening to dogs then don't stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r185375660-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>185375660</t>
+  </si>
+  <si>
+    <t>11/20/2013</t>
+  </si>
+  <si>
+    <t>Beter than several other La Quintas</t>
+  </si>
+  <si>
+    <t>Good value for the money. Clean hotel with a decent breakfast. Almost gave up on La Quinta's after our stay at the one in Webster Texas it was not a clean hotel. Had to convince my wife to try this La Quinta in Brookshire TX.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r177946401-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>177946401</t>
+  </si>
+  <si>
+    <t>09/20/2013</t>
+  </si>
+  <si>
+    <t>A perfect choice for our needs</t>
+  </si>
+  <si>
+    <t>Visiting our son and family in Katy.  Had to be a pet friendly establishment.  And from a traffic perspective, being west of Katy seemed the best move.  Hence we selected the La Quinta in Brookshire.
+The property is very easy to find, right off the freeway exit in a relatively unbuilt up area.  We arrived well before check in time (on a Friday afternoon).    Front desk was able to get us into a room quickly nonetheless on the first floor in the wing to the left of the lobby.
+Very attractive room with all the expected amenities to include free hi speed internet, all of which worked well.   Walked the pooch around the building, freshened up and headed east to Katy speeding along while the traffic going west was sluggish.   By the time we returned that evening the traffic had cleared.
+Everyone slept well to a more reasonable waking hour finally adjusting to central time after three days.     No complaints about the beds or AC.
+Breakfast was fine with cereals, biscuits and gravy, hard boiled eggs, etc.  Noticed there was only regular coffee available.  Mentioned it to the attendant who quickly brewed some decaf for us.  
+Later as we were passing through the lobby on the way out, we noticed a pretty good crowd in the breakfast room, including a few kids who had to take a break to pet our pooch.
+Then east and south onto Galveston Island.  Should...Visiting our son and family in Katy.  Had to be a pet friendly establishment.  And from a traffic perspective, being west of Katy seemed the best move.  Hence we selected the La Quinta in Brookshire.The property is very easy to find, right off the freeway exit in a relatively unbuilt up area.  We arrived well before check in time (on a Friday afternoon).    Front desk was able to get us into a room quickly nonetheless on the first floor in the wing to the left of the lobby.Very attractive room with all the expected amenities to include free hi speed internet, all of which worked well.   Walked the pooch around the building, freshened up and headed east to Katy speeding along while the traffic going west was sluggish.   By the time we returned that evening the traffic had cleared.Everyone slept well to a more reasonable waking hour finally adjusting to central time after three days.     No complaints about the beds or AC.Breakfast was fine with cereals, biscuits and gravy, hard boiled eggs, etc.  Noticed there was only regular coffee available.  Mentioned it to the attendant who quickly brewed some decaf for us.  Later as we were passing through the lobby on the way out, we noticed a pretty good crowd in the breakfast room, including a few kids who had to take a break to pet our pooch.Then east and south onto Galveston Island.  Should note that Houston bound traffic was quite light, as it should be on a Saturday morning.  Just an excellent stay, and can recommend the hotel with or without pets.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Visiting our son and family in Katy.  Had to be a pet friendly establishment.  And from a traffic perspective, being west of Katy seemed the best move.  Hence we selected the La Quinta in Brookshire.
+The property is very easy to find, right off the freeway exit in a relatively unbuilt up area.  We arrived well before check in time (on a Friday afternoon).    Front desk was able to get us into a room quickly nonetheless on the first floor in the wing to the left of the lobby.
+Very attractive room with all the expected amenities to include free hi speed internet, all of which worked well.   Walked the pooch around the building, freshened up and headed east to Katy speeding along while the traffic going west was sluggish.   By the time we returned that evening the traffic had cleared.
+Everyone slept well to a more reasonable waking hour finally adjusting to central time after three days.     No complaints about the beds or AC.
+Breakfast was fine with cereals, biscuits and gravy, hard boiled eggs, etc.  Noticed there was only regular coffee available.  Mentioned it to the attendant who quickly brewed some decaf for us.  
+Later as we were passing through the lobby on the way out, we noticed a pretty good crowd in the breakfast room, including a few kids who had to take a break to pet our pooch.
+Then east and south onto Galveston Island.  Should...Visiting our son and family in Katy.  Had to be a pet friendly establishment.  And from a traffic perspective, being west of Katy seemed the best move.  Hence we selected the La Quinta in Brookshire.The property is very easy to find, right off the freeway exit in a relatively unbuilt up area.  We arrived well before check in time (on a Friday afternoon).    Front desk was able to get us into a room quickly nonetheless on the first floor in the wing to the left of the lobby.Very attractive room with all the expected amenities to include free hi speed internet, all of which worked well.   Walked the pooch around the building, freshened up and headed east to Katy speeding along while the traffic going west was sluggish.   By the time we returned that evening the traffic had cleared.Everyone slept well to a more reasonable waking hour finally adjusting to central time after three days.     No complaints about the beds or AC.Breakfast was fine with cereals, biscuits and gravy, hard boiled eggs, etc.  Noticed there was only regular coffee available.  Mentioned it to the attendant who quickly brewed some decaf for us.  Later as we were passing through the lobby on the way out, we noticed a pretty good crowd in the breakfast room, including a few kids who had to take a break to pet our pooch.Then east and south onto Galveston Island.  Should note that Houston bound traffic was quite light, as it should be on a Saturday morning.  Just an excellent stay, and can recommend the hotel with or without pets.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r165125730-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>165125730</t>
+  </si>
+  <si>
+    <t>06/24/2013</t>
+  </si>
+  <si>
+    <t>Service and Staff Excellent</t>
+  </si>
+  <si>
+    <t>My wife and I were impressed by the attitude of the help and their desire to see to our every need.  Beginning with the woman, whose name I did not get, that set out the great breakfast selections; Anita that made our reservations and took the time to describe the room choices to me in a most pleasant manner;  Jessica, who took the time to give my wife and I directions to a local pharmacy and because I must have looked confused, she gave me her card and told me to call if I got lost!    When a noisy, inconsiderate wedding party woke us, Eric responded to complaints and peace returned.  I would chat with Eric almost every morning and he would always ask if everything was O.K.  His cheerful attitude was contagious.   The room was certainly clean, comfortable and fit our needs perfectly.  We have nothing but praise for the staff we met and have no reason to think the rest of the staff would be any different.   If you need a hotel in the area, I recommend this one.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>My wife and I were impressed by the attitude of the help and their desire to see to our every need.  Beginning with the woman, whose name I did not get, that set out the great breakfast selections; Anita that made our reservations and took the time to describe the room choices to me in a most pleasant manner;  Jessica, who took the time to give my wife and I directions to a local pharmacy and because I must have looked confused, she gave me her card and told me to call if I got lost!    When a noisy, inconsiderate wedding party woke us, Eric responded to complaints and peace returned.  I would chat with Eric almost every morning and he would always ask if everything was O.K.  His cheerful attitude was contagious.   The room was certainly clean, comfortable and fit our needs perfectly.  We have nothing but praise for the staff we met and have no reason to think the rest of the staff would be any different.   If you need a hotel in the area, I recommend this one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r164257682-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>164257682</t>
+  </si>
+  <si>
+    <t>06/17/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r159537587-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>159537587</t>
+  </si>
+  <si>
+    <t>05/03/2013</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r152907732-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>152907732</t>
+  </si>
+  <si>
+    <t>02/23/2013</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r152468205-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>152468205</t>
+  </si>
+  <si>
+    <t>02/18/2013</t>
+  </si>
+  <si>
+    <t>Couldn't have asked for anything better!!</t>
+  </si>
+  <si>
+    <t>Me, my husband and our daughter stayed this weekend for a cheer competition in Katy.  We were overwhelmed with how nice and helpful Anita was.  She checked us in Friday evening, on our way back Sunday afternoon I called and inquired on places to order food and when we walked in she handed me the different places with phone numbers circled.  I didn't have to take the time to look up places, she even helped us out with plates and cups so we could eat in our room.  The rooms and price couldn't be beat!!  But the service Anita provided us was outstanding!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r150863088-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>150863088</t>
+  </si>
+  <si>
+    <t>01/28/2013</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r140633284-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>140633284</t>
+  </si>
+  <si>
+    <t>09/18/2012</t>
+  </si>
+  <si>
+    <t>travelling on business, best bet in the area</t>
+  </si>
+  <si>
+    <t>Had to goto a business meeting in Brookshire and had limited choices.  They did have wifi everywhere in the hotel which worked out great.  The breakfast was good to get me going on my day since there was not much option outside to go eat so the hot food was good.  Got a chance to go swimming in the pool which you could do laps in if you wanted.  Eric checked me in smoothly and was always helpful.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r138474829-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>138474829</t>
+  </si>
+  <si>
+    <t>08/26/2012</t>
+  </si>
+  <si>
+    <t>Quiet and secluded,  but maybe a little too much so..</t>
+  </si>
+  <si>
+    <t>When in this neck of the woods I generaly stay at the La Quinta in Katy located 10 miles east of here, It was full so I chose this location. The two facilitys are nearly identical twins, same size, same amenitys, etc. While this location had the same friendly service and the same quality accomidations i.e. very clean rooms, modern amenitys, comfortable bedding etc. etc. It is really located in the middle of nowhere, so secluded in fact that we could not even get a pizza delivered from either pizza hut or dommino's because they said it was outside of their delivery area.With the exception of one tiny mom and pop mexican resturaunt across the street, there is really no other food choices close by so keep that in mind before chooseing this location.Other than the out of the way location, I had no complaints..MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>When in this neck of the woods I generaly stay at the La Quinta in Katy located 10 miles east of here, It was full so I chose this location. The two facilitys are nearly identical twins, same size, same amenitys, etc. While this location had the same friendly service and the same quality accomidations i.e. very clean rooms, modern amenitys, comfortable bedding etc. etc. It is really located in the middle of nowhere, so secluded in fact that we could not even get a pizza delivered from either pizza hut or dommino's because they said it was outside of their delivery area.With the exception of one tiny mom and pop mexican resturaunt across the street, there is really no other food choices close by so keep that in mind before chooseing this location.Other than the out of the way location, I had no complaints..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r136694602-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>136694602</t>
+  </si>
+  <si>
+    <t>08/08/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r128444232-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>128444232</t>
+  </si>
+  <si>
+    <t>04/23/2012</t>
+  </si>
+  <si>
+    <t>Cheap, clean, modern, comfortable</t>
+  </si>
+  <si>
+    <t>As the title says, this hotel ticks all the boxes if you want want an all round functional hotel and low cost. Room decor is modern, bed is comfortable, free wifi. A great hotel.</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r122524194-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>122524194</t>
+  </si>
+  <si>
+    <t>01/04/2012</t>
+  </si>
+  <si>
+    <t>Very friendly</t>
+  </si>
+  <si>
+    <t>We went table tennis tournament last thanks giving and really enjoy the facility there especially the staff there! They are very nice</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r102834581-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>102834581</t>
+  </si>
+  <si>
+    <t>04/04/2011</t>
+  </si>
+  <si>
+    <t>Generally pretty good but a few complaints</t>
+  </si>
+  <si>
+    <t>The day before checkout, the used towels were removed but not replaced.  Since I had gotten back to the hotel very late (after midnight) and was very tired and did not notice the lack of towels until I had changed into my sleeping attire, I decided to dry off from my shower the next morning with the hand towel.  Someone was not paying attention when the room was made up that day.Every morning of my stay (four days), there were 40 people for breakfast between 6:30 and 7:00 AM.  Sunday morning, they obviously were not expecting anyone for breakfast because there was hardly any food out at 6:30.  By the time the food was available at 7, everyone had to leave without eating.  The type of group that was there was similar to other groups that previously used the hotel in the past and the staff should have been aware that we, just like similar groups in the past, would be wanting breakfast on Sunday morning at 6:30 AM.  The group I was with was associated with corporate training close by and similar groups recur on a regular basis.  The hotel is very much aware when this type of group is staying with them.In spite of the minor problems I would recommend this hotel.  These problems are fixable.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>The day before checkout, the used towels were removed but not replaced.  Since I had gotten back to the hotel very late (after midnight) and was very tired and did not notice the lack of towels until I had changed into my sleeping attire, I decided to dry off from my shower the next morning with the hand towel.  Someone was not paying attention when the room was made up that day.Every morning of my stay (four days), there were 40 people for breakfast between 6:30 and 7:00 AM.  Sunday morning, they obviously were not expecting anyone for breakfast because there was hardly any food out at 6:30.  By the time the food was available at 7, everyone had to leave without eating.  The type of group that was there was similar to other groups that previously used the hotel in the past and the staff should have been aware that we, just like similar groups in the past, would be wanting breakfast on Sunday morning at 6:30 AM.  The group I was with was associated with corporate training close by and similar groups recur on a regular basis.  The hotel is very much aware when this type of group is staying with them.In spite of the minor problems I would recommend this hotel.  These problems are fixable.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1686,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1718,3947 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>79</v>
+      </c>
+      <c r="O7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>86</v>
+      </c>
+      <c r="X7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>101</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10" t="s">
+        <v>72</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" t="s">
+        <v>80</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L12" t="s">
+        <v>114</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>109</v>
+      </c>
+      <c r="O12" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>115</v>
+      </c>
+      <c r="X12" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>123</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J14" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" t="s">
+        <v>127</v>
+      </c>
+      <c r="L14" t="s">
+        <v>128</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>129</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>130</v>
+      </c>
+      <c r="X14" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15" t="s">
+        <v>136</v>
+      </c>
+      <c r="L15" t="s">
+        <v>137</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>138</v>
+      </c>
+      <c r="O15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L16" t="s">
+        <v>143</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>138</v>
+      </c>
+      <c r="O16" t="s">
+        <v>80</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>145</v>
+      </c>
+      <c r="J17" t="s">
+        <v>146</v>
+      </c>
+      <c r="K17" t="s">
+        <v>147</v>
+      </c>
+      <c r="L17" t="s">
+        <v>148</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>149</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>150</v>
+      </c>
+      <c r="X17" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>154</v>
+      </c>
+      <c r="J18" t="s">
+        <v>155</v>
+      </c>
+      <c r="K18" t="s">
+        <v>156</v>
+      </c>
+      <c r="L18" t="s">
+        <v>157</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>158</v>
+      </c>
+      <c r="O18" t="s">
+        <v>72</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>159</v>
+      </c>
+      <c r="X18" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>163</v>
+      </c>
+      <c r="J19" t="s">
+        <v>164</v>
+      </c>
+      <c r="K19" t="s">
+        <v>165</v>
+      </c>
+      <c r="L19" t="s">
+        <v>166</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>158</v>
+      </c>
+      <c r="O19" t="s">
+        <v>80</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>168</v>
+      </c>
+      <c r="J20" t="s">
+        <v>169</v>
+      </c>
+      <c r="K20" t="s">
+        <v>170</v>
+      </c>
+      <c r="L20" t="s">
+        <v>171</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>172</v>
+      </c>
+      <c r="O20" t="s">
+        <v>72</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>173</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>174</v>
+      </c>
+      <c r="J21" t="s">
+        <v>175</v>
+      </c>
+      <c r="K21" t="s">
+        <v>176</v>
+      </c>
+      <c r="L21" t="s">
+        <v>177</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>178</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>179</v>
+      </c>
+      <c r="J22" t="s">
+        <v>180</v>
+      </c>
+      <c r="K22" t="s">
+        <v>181</v>
+      </c>
+      <c r="L22" t="s">
+        <v>182</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>183</v>
+      </c>
+      <c r="O22" t="s">
+        <v>80</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>184</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>185</v>
+      </c>
+      <c r="J23" t="s">
+        <v>186</v>
+      </c>
+      <c r="K23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L23" t="s">
+        <v>188</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>189</v>
+      </c>
+      <c r="O23" t="s">
+        <v>65</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>190</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>191</v>
+      </c>
+      <c r="J24" t="s">
+        <v>192</v>
+      </c>
+      <c r="K24" t="s">
+        <v>193</v>
+      </c>
+      <c r="L24" t="s">
+        <v>194</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>195</v>
+      </c>
+      <c r="O24" t="s">
+        <v>72</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>196</v>
+      </c>
+      <c r="X24" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>199</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>200</v>
+      </c>
+      <c r="J25" t="s">
+        <v>201</v>
+      </c>
+      <c r="K25" t="s">
+        <v>202</v>
+      </c>
+      <c r="L25" t="s">
+        <v>203</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>204</v>
+      </c>
+      <c r="O25" t="s">
+        <v>80</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>206</v>
+      </c>
+      <c r="J26" t="s">
+        <v>207</v>
+      </c>
+      <c r="K26" t="s">
+        <v>208</v>
+      </c>
+      <c r="L26" t="s">
+        <v>209</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>210</v>
+      </c>
+      <c r="O26" t="s">
+        <v>65</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>211</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>212</v>
+      </c>
+      <c r="J27" t="s">
+        <v>213</v>
+      </c>
+      <c r="K27" t="s">
+        <v>214</v>
+      </c>
+      <c r="L27" t="s">
+        <v>215</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>216</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>219</v>
+      </c>
+      <c r="J28" t="s">
+        <v>220</v>
+      </c>
+      <c r="K28" t="s">
+        <v>221</v>
+      </c>
+      <c r="L28" t="s">
+        <v>222</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>223</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>224</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>225</v>
+      </c>
+      <c r="J29" t="s">
+        <v>226</v>
+      </c>
+      <c r="K29" t="s">
+        <v>227</v>
+      </c>
+      <c r="L29" t="s">
+        <v>228</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>229</v>
+      </c>
+      <c r="O29" t="s">
+        <v>80</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>230</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>231</v>
+      </c>
+      <c r="J30" t="s">
+        <v>232</v>
+      </c>
+      <c r="K30" t="s">
+        <v>233</v>
+      </c>
+      <c r="L30" t="s">
+        <v>234</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>235</v>
+      </c>
+      <c r="O30" t="s">
+        <v>72</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>236</v>
+      </c>
+      <c r="X30" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>239</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>240</v>
+      </c>
+      <c r="J31" t="s">
+        <v>241</v>
+      </c>
+      <c r="K31" t="s">
+        <v>242</v>
+      </c>
+      <c r="L31" t="s">
+        <v>243</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>244</v>
+      </c>
+      <c r="O31" t="s">
+        <v>72</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>245</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>246</v>
+      </c>
+      <c r="J32" t="s">
+        <v>247</v>
+      </c>
+      <c r="K32" t="s">
+        <v>248</v>
+      </c>
+      <c r="L32" t="s">
+        <v>249</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>251</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>252</v>
+      </c>
+      <c r="J33" t="s">
+        <v>253</v>
+      </c>
+      <c r="K33" t="s">
+        <v>254</v>
+      </c>
+      <c r="L33" t="s">
+        <v>255</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>256</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>257</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>258</v>
+      </c>
+      <c r="J34" t="s">
+        <v>259</v>
+      </c>
+      <c r="K34" t="s">
+        <v>260</v>
+      </c>
+      <c r="L34" t="s">
+        <v>261</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>256</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>262</v>
+      </c>
+      <c r="X34" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>265</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>266</v>
+      </c>
+      <c r="J35" t="s">
+        <v>267</v>
+      </c>
+      <c r="K35" t="s">
+        <v>268</v>
+      </c>
+      <c r="L35" t="s">
+        <v>269</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>270</v>
+      </c>
+      <c r="O35" t="s">
+        <v>72</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>271</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>272</v>
+      </c>
+      <c r="J36" t="s">
+        <v>273</v>
+      </c>
+      <c r="K36" t="s">
+        <v>274</v>
+      </c>
+      <c r="L36" t="s">
+        <v>275</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>276</v>
+      </c>
+      <c r="O36" t="s">
+        <v>72</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>277</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>278</v>
+      </c>
+      <c r="J37" t="s">
+        <v>279</v>
+      </c>
+      <c r="K37" t="s">
+        <v>280</v>
+      </c>
+      <c r="L37" t="s">
+        <v>281</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>282</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>283</v>
+      </c>
+      <c r="J38" t="s">
+        <v>284</v>
+      </c>
+      <c r="K38" t="s">
+        <v>285</v>
+      </c>
+      <c r="L38" t="s">
+        <v>286</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>287</v>
+      </c>
+      <c r="O38" t="s">
+        <v>72</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>288</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>289</v>
+      </c>
+      <c r="J39" t="s">
+        <v>290</v>
+      </c>
+      <c r="K39" t="s"/>
+      <c r="L39" t="s"/>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>291</v>
+      </c>
+      <c r="O39" t="s">
+        <v>80</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>292</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>293</v>
+      </c>
+      <c r="J40" t="s">
+        <v>294</v>
+      </c>
+      <c r="K40" t="s">
+        <v>295</v>
+      </c>
+      <c r="L40" t="s">
+        <v>296</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>297</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>298</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>299</v>
+      </c>
+      <c r="J41" t="s">
+        <v>300</v>
+      </c>
+      <c r="K41" t="s">
+        <v>301</v>
+      </c>
+      <c r="L41" t="s">
+        <v>302</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>297</v>
+      </c>
+      <c r="O41" t="s">
+        <v>65</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>303</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>304</v>
+      </c>
+      <c r="J42" t="s">
+        <v>305</v>
+      </c>
+      <c r="K42" t="s"/>
+      <c r="L42" t="s"/>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>306</v>
+      </c>
+      <c r="O42" t="s">
+        <v>101</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>307</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>308</v>
+      </c>
+      <c r="J43" t="s">
+        <v>309</v>
+      </c>
+      <c r="K43" t="s">
+        <v>310</v>
+      </c>
+      <c r="L43" t="s">
+        <v>311</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>312</v>
+      </c>
+      <c r="O43" t="s">
+        <v>72</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>313</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>314</v>
+      </c>
+      <c r="J44" t="s">
+        <v>315</v>
+      </c>
+      <c r="K44" t="s">
+        <v>316</v>
+      </c>
+      <c r="L44" t="s">
+        <v>317</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>318</v>
+      </c>
+      <c r="O44" t="s">
+        <v>72</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>319</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>320</v>
+      </c>
+      <c r="J45" t="s">
+        <v>321</v>
+      </c>
+      <c r="K45" t="s">
+        <v>322</v>
+      </c>
+      <c r="L45" t="s">
+        <v>323</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>324</v>
+      </c>
+      <c r="O45" t="s">
+        <v>72</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>325</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>326</v>
+      </c>
+      <c r="J46" t="s">
+        <v>327</v>
+      </c>
+      <c r="K46" t="s">
+        <v>328</v>
+      </c>
+      <c r="L46" t="s">
+        <v>329</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>324</v>
+      </c>
+      <c r="O46" t="s">
+        <v>72</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>331</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>332</v>
+      </c>
+      <c r="J47" t="s">
+        <v>333</v>
+      </c>
+      <c r="K47" t="s">
+        <v>334</v>
+      </c>
+      <c r="L47" t="s">
+        <v>335</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>336</v>
+      </c>
+      <c r="O47" t="s">
+        <v>80</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>337</v>
+      </c>
+      <c r="X47" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>340</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>341</v>
+      </c>
+      <c r="J48" t="s">
+        <v>342</v>
+      </c>
+      <c r="K48" t="s">
+        <v>343</v>
+      </c>
+      <c r="L48" t="s">
+        <v>344</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>345</v>
+      </c>
+      <c r="O48" t="s">
+        <v>80</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>346</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>347</v>
+      </c>
+      <c r="J49" t="s">
+        <v>348</v>
+      </c>
+      <c r="K49" t="s">
+        <v>349</v>
+      </c>
+      <c r="L49" t="s">
+        <v>350</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>351</v>
+      </c>
+      <c r="O49" t="s">
+        <v>72</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>353</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>354</v>
+      </c>
+      <c r="J50" t="s">
+        <v>355</v>
+      </c>
+      <c r="K50" t="s">
+        <v>356</v>
+      </c>
+      <c r="L50" t="s">
+        <v>357</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>358</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>360</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>361</v>
+      </c>
+      <c r="J51" t="s">
+        <v>362</v>
+      </c>
+      <c r="K51" t="s"/>
+      <c r="L51" t="s"/>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>358</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>363</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>364</v>
+      </c>
+      <c r="J52" t="s">
+        <v>365</v>
+      </c>
+      <c r="K52" t="s"/>
+      <c r="L52" t="s"/>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>366</v>
+      </c>
+      <c r="O52" t="s">
+        <v>80</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>367</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>368</v>
+      </c>
+      <c r="J53" t="s">
+        <v>369</v>
+      </c>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s"/>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>370</v>
+      </c>
+      <c r="O53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>371</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>372</v>
+      </c>
+      <c r="J54" t="s">
+        <v>373</v>
+      </c>
+      <c r="K54" t="s">
+        <v>374</v>
+      </c>
+      <c r="L54" t="s">
+        <v>375</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>370</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>376</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>377</v>
+      </c>
+      <c r="J55" t="s">
+        <v>378</v>
+      </c>
+      <c r="K55" t="s"/>
+      <c r="L55" t="s"/>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>379</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>380</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>381</v>
+      </c>
+      <c r="J56" t="s">
+        <v>382</v>
+      </c>
+      <c r="K56" t="s">
+        <v>383</v>
+      </c>
+      <c r="L56" t="s">
+        <v>384</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>385</v>
+      </c>
+      <c r="O56" t="s">
+        <v>80</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>386</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>387</v>
+      </c>
+      <c r="J57" t="s">
+        <v>388</v>
+      </c>
+      <c r="K57" t="s">
+        <v>389</v>
+      </c>
+      <c r="L57" t="s">
+        <v>390</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>391</v>
+      </c>
+      <c r="O57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>393</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>394</v>
+      </c>
+      <c r="J58" t="s">
+        <v>395</v>
+      </c>
+      <c r="K58" t="s"/>
+      <c r="L58" t="s"/>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>391</v>
+      </c>
+      <c r="O58" t="s">
+        <v>72</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>396</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>397</v>
+      </c>
+      <c r="J59" t="s">
+        <v>398</v>
+      </c>
+      <c r="K59" t="s">
+        <v>399</v>
+      </c>
+      <c r="L59" t="s">
+        <v>400</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>401</v>
+      </c>
+      <c r="O59" t="s">
+        <v>80</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>402</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>403</v>
+      </c>
+      <c r="J60" t="s">
+        <v>404</v>
+      </c>
+      <c r="K60" t="s">
+        <v>405</v>
+      </c>
+      <c r="L60" t="s">
+        <v>406</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>407</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>408</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>409</v>
+      </c>
+      <c r="J61" t="s">
+        <v>410</v>
+      </c>
+      <c r="K61" t="s">
+        <v>411</v>
+      </c>
+      <c r="L61" t="s">
+        <v>412</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>413</v>
+      </c>
+      <c r="O61" t="s">
+        <v>80</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>414</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_427.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_427.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="643">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,72 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/11/2018</t>
+    <t>09/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r610540338-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>55536</t>
+  </si>
+  <si>
+    <t>1236786</t>
+  </si>
+  <si>
+    <t>610540338</t>
+  </si>
+  <si>
+    <t>08/26/2018</t>
+  </si>
+  <si>
+    <t>Playing Dirty Pool</t>
+  </si>
+  <si>
+    <t>Only thing good on my visit was the price. I could go one but the place needs a total upgrade: broken floor tiles everywhere, grungy and dust two years old.  Almost out of toilet paper when first entering the room. Spa broken, grungy deck around pool. Cheap attempt to plaster holes in the floor tiles everywhere.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r604685019-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>604685019</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>perfect stay off the freeway</t>
+  </si>
+  <si>
+    <t>Glad we stopped at this La Quinta driving thru Texas.   the people working there were great and the hotel was nice enough to let us check in early.  Pool was a bonus as we jumped in in this heat whcih was refreshing.  thank you.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r608161608-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>608161608</t>
+  </si>
+  <si>
+    <t>08/19/2018</t>
+  </si>
+  <si>
+    <t>Great place for a brief business trip!</t>
+  </si>
+  <si>
+    <t>I felt safe and the room was clean and well furnished. Would not hesitate to stay here again! I liked being on the first floor close to the desk. Even though the coffee pot in our room didn’t work, it was a quick, convenient trip to coffee in the lobby. The breakfast was tasty, fresh and hot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r598026797-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
   </si>
   <si>
-    <t>55536</t>
-  </si>
-  <si>
-    <t>1236786</t>
-  </si>
-  <si>
     <t>598026797</t>
   </si>
   <si>
@@ -214,6 +268,63 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r587089168-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>587089168</t>
+  </si>
+  <si>
+    <t>06/12/2018</t>
+  </si>
+  <si>
+    <t>Clean and convient</t>
+  </si>
+  <si>
+    <t>This hotel was clean and very inexpensive. The continental breakfast was good. and fresh. The hotel staff was friendly and courteous. This hotel is new. The rooms are very spacious. We were in a king size bedroom. The bed was very comfortable.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r584260445-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>584260445</t>
+  </si>
+  <si>
+    <t>05/31/2018</t>
+  </si>
+  <si>
+    <t>La Quinta Brookshire</t>
+  </si>
+  <si>
+    <t>Value hotel, with value hotel feel. Would probably only stay at this hotel if I absolutely had to. Staff seemed forced to be there. Not at the same quality of most hotels I have stayed at in the past.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>LQ Customer Car... T, LQ Customer Care at La Quinta Inn &amp; Suites Brookshire, responded to this reviewResponded June 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2018</t>
+  </si>
+  <si>
+    <t>Value hotel, with value hotel feel. Would probably only stay at this hotel if I absolutely had to. Staff seemed forced to be there. Not at the same quality of most hotels I have stayed at in the past.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r583531672-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>583531672</t>
+  </si>
+  <si>
+    <t>05/28/2018</t>
+  </si>
+  <si>
+    <t>Excellent Time Becasue of Excellent Management</t>
+  </si>
+  <si>
+    <t>The Manger (Encore) could not have been kinder, more efficient or even more Professional. Because of his nature, our stay with our daughters and grand babies helped create an experience that we are still talking about.It is a memory that will be remembered for years.Thank you so very, very much.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r580133778-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
@@ -233,12 +344,6 @@
 Breakfast is available at 6am, selection was poor, food was cold &amp; inedible by 6:30, even the coffee in the carafe was cold no matter what time of day. I ended up going over to the donut shop on the other side of the interstate for breakfast sandwiches. The public areas could be cleaner, floors looked unwashed/in need of vacuuming, trash was not emptied after breakfast even though cans were full.  The hotel store was well stocked but the ice cream was too soft &amp; at $5.00 pint too expensive. The weather was beautiful and it would have been nice to sit out by the pool/hot tub except for the fact that Saturday, the people next door had hip-hop music blaring for at least 5 continuous hours. You couldn't hear it inside the hotel but we couldn't help but hear it when we went out with the dog &amp;  it made sitting outside impossible. As an earlier reviewer mentioned, there was a grill out on the patio but we didn't ask to use it. Also both the pool &amp; hot tub...Very pet friendly! We were there 4 days, the first week in May. The room was clean &amp; the staff friendly &amp; helpful but this location was not up to the standards of other LQ Hotels we've visited &amp; they appeared to have a staffing issue. The Wi-Fi is horrible &amp; should not even be advertised as an amenity.  Breakfast is available at 6am, selection was poor, food was cold &amp; inedible by 6:30, even the coffee in the carafe was cold no matter what time of day. I ended up going over to the donut shop on the other side of the interstate for breakfast sandwiches. The public areas could be cleaner, floors looked unwashed/in need of vacuuming, trash was not emptied after breakfast even though cans were full.  The hotel store was well stocked but the ice cream was too soft &amp; at $5.00 pint too expensive. The weather was beautiful and it would have been nice to sit out by the pool/hot tub except for the fact that Saturday, the people next door had hip-hop music blaring for at least 5 continuous hours. You couldn't hear it inside the hotel but we couldn't help but hear it when we went out with the dog &amp;  it made sitting outside impossible. As an earlier reviewer mentioned, there was a grill out on the patio but we didn't ask to use it. Also both the pool &amp; hot tub were green, it may have been too early in the season to open the pools. We would rather stay at our usual stop, but if it isn't available, this is an acceptable option. MoreShow less</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Very pet friendly! We were there 4 days, the first week in May. The room was clean &amp; the staff friendly &amp; helpful but this location was not up to the standards of other LQ Hotels we've visited &amp; they appeared to have a staffing issue. 
 The Wi-Fi is horrible &amp; should not even be advertised as an amenity.  
 Breakfast is available at 6am, selection was poor, food was cold &amp; inedible by 6:30, even the coffee in the carafe was cold no matter what time of day. I ended up going over to the donut shop on the other side of the interstate for breakfast sandwiches. The public areas could be cleaner, floors looked unwashed/in need of vacuuming, trash was not emptied after breakfast even though cans were full.  The hotel store was well stocked but the ice cream was too soft &amp; at $5.00 pint too expensive. The weather was beautiful and it would have been nice to sit out by the pool/hot tub except for the fact that Saturday, the people next door had hip-hop music blaring for at least 5 continuous hours. You couldn't hear it inside the hotel but we couldn't help but hear it when we went out with the dog &amp;  it made sitting outside impossible. As an earlier reviewer mentioned, there was a grill out on the patio but we didn't ask to use it. Also both the pool &amp; hot tub...Very pet friendly! We were there 4 days, the first week in May. The room was clean &amp; the staff friendly &amp; helpful but this location was not up to the standards of other LQ Hotels we've visited &amp; they appeared to have a staffing issue. The Wi-Fi is horrible &amp; should not even be advertised as an amenity.  Breakfast is available at 6am, selection was poor, food was cold &amp; inedible by 6:30, even the coffee in the carafe was cold no matter what time of day. I ended up going over to the donut shop on the other side of the interstate for breakfast sandwiches. The public areas could be cleaner, floors looked unwashed/in need of vacuuming, trash was not emptied after breakfast even though cans were full.  The hotel store was well stocked but the ice cream was too soft &amp; at $5.00 pint too expensive. The weather was beautiful and it would have been nice to sit out by the pool/hot tub except for the fact that Saturday, the people next door had hip-hop music blaring for at least 5 continuous hours. You couldn't hear it inside the hotel but we couldn't help but hear it when we went out with the dog &amp;  it made sitting outside impossible. As an earlier reviewer mentioned, there was a grill out on the patio but we didn't ask to use it. Also both the pool &amp; hot tub were green, it may have been too early in the season to open the pools. We would rather stay at our usual stop, but if it isn't available, this is an acceptable option. More</t>
@@ -262,9 +367,6 @@
     <t>April 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r574353362-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
   </si>
   <si>
@@ -289,6 +391,45 @@
     <t>I absolutely LOVE LaQuinta franchise.  This hotel however was not my pick.  I had to wait almost 30 minutes before I was checked in.  Not because they were busy but because no one was behind the counter.  My room was not clean and the bed was uncomfortable.  I can not in good conscious recommend this particular hotel.  The franchise overall has been amazing but not this location.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r567873545-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>567873545</t>
+  </si>
+  <si>
+    <t>03/21/2018</t>
+  </si>
+  <si>
+    <t>Only Two Suggestions to Make it Better</t>
+  </si>
+  <si>
+    <t>I was traveling through town and needed to stopover for one night.  The hotel staff was professional, friendly, and helpful.  The room was impeccably clean.  I stayed in a king room, which had a desk and small sofa/living room set up. There was also a mini fridge and microwave.  It was really quiet until after dark.  My room was located on the 2nd floor near the elevator and stairwell and there were times I woke up in the night due to the electronic elevator ding (noting someone was getting on or off at the floor) and/or the stairwell door slamming shut.  If hotel staff reads this and can turn the sound down on the elevator chime, it might help future guests get a better night sleep.  I know little can be done about the stairwell door slamming in the night; other than guests being mindful that people are asleep on the other side of the wall, bringing earplugs, or asking for a room not located adjacent to the stairwell.  I loved that the lobby contained a "pantry" of snacks and drinks, which was convenient as there aren't many options for food within walking distance (although it looks like a convenience store going in next door will have a restaurant once it's open).  One unique feature I'd like to mention is about 5 ports for electric vehicle plug in!  Way to be forward thinking!  (I have an electric car and rarely...I was traveling through town and needed to stopover for one night.  The hotel staff was professional, friendly, and helpful.  The room was impeccably clean.  I stayed in a king room, which had a desk and small sofa/living room set up. There was also a mini fridge and microwave.  It was really quiet until after dark.  My room was located on the 2nd floor near the elevator and stairwell and there were times I woke up in the night due to the electronic elevator ding (noting someone was getting on or off at the floor) and/or the stairwell door slamming shut.  If hotel staff reads this and can turn the sound down on the elevator chime, it might help future guests get a better night sleep.  I know little can be done about the stairwell door slamming in the night; other than guests being mindful that people are asleep on the other side of the wall, bringing earplugs, or asking for a room not located adjacent to the stairwell.  I loved that the lobby contained a "pantry" of snacks and drinks, which was convenient as there aren't many options for food within walking distance (although it looks like a convenience store going in next door will have a restaurant once it's open).  One unique feature I'd like to mention is about 5 ports for electric vehicle plug in!  Way to be forward thinking!  (I have an electric car and rarely drive it to other cities because it's difficult to find charging stations!)  Breakfast was mediocre, but it was included in the price of stay, so I can't complain too much.  There was fresh fruit, scrambled eggs, sausage, a few varieties of cereal, and waffles.  The baked goods were either out or weren't replenished (bagels, muffins, biscuits).  All in all, it was a great stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>I was traveling through town and needed to stopover for one night.  The hotel staff was professional, friendly, and helpful.  The room was impeccably clean.  I stayed in a king room, which had a desk and small sofa/living room set up. There was also a mini fridge and microwave.  It was really quiet until after dark.  My room was located on the 2nd floor near the elevator and stairwell and there were times I woke up in the night due to the electronic elevator ding (noting someone was getting on or off at the floor) and/or the stairwell door slamming shut.  If hotel staff reads this and can turn the sound down on the elevator chime, it might help future guests get a better night sleep.  I know little can be done about the stairwell door slamming in the night; other than guests being mindful that people are asleep on the other side of the wall, bringing earplugs, or asking for a room not located adjacent to the stairwell.  I loved that the lobby contained a "pantry" of snacks and drinks, which was convenient as there aren't many options for food within walking distance (although it looks like a convenience store going in next door will have a restaurant once it's open).  One unique feature I'd like to mention is about 5 ports for electric vehicle plug in!  Way to be forward thinking!  (I have an electric car and rarely...I was traveling through town and needed to stopover for one night.  The hotel staff was professional, friendly, and helpful.  The room was impeccably clean.  I stayed in a king room, which had a desk and small sofa/living room set up. There was also a mini fridge and microwave.  It was really quiet until after dark.  My room was located on the 2nd floor near the elevator and stairwell and there were times I woke up in the night due to the electronic elevator ding (noting someone was getting on or off at the floor) and/or the stairwell door slamming shut.  If hotel staff reads this and can turn the sound down on the elevator chime, it might help future guests get a better night sleep.  I know little can be done about the stairwell door slamming in the night; other than guests being mindful that people are asleep on the other side of the wall, bringing earplugs, or asking for a room not located adjacent to the stairwell.  I loved that the lobby contained a "pantry" of snacks and drinks, which was convenient as there aren't many options for food within walking distance (although it looks like a convenience store going in next door will have a restaurant once it's open).  One unique feature I'd like to mention is about 5 ports for electric vehicle plug in!  Way to be forward thinking!  (I have an electric car and rarely drive it to other cities because it's difficult to find charging stations!)  Breakfast was mediocre, but it was included in the price of stay, so I can't complain too much.  There was fresh fruit, scrambled eggs, sausage, a few varieties of cereal, and waffles.  The baked goods were either out or weren't replenished (bagels, muffins, biscuits).  All in all, it was a great stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r560839695-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>560839695</t>
+  </si>
+  <si>
+    <t>02/16/2018</t>
+  </si>
+  <si>
+    <t>Exceptional</t>
+  </si>
+  <si>
+    <t>This is an exceptional property. Everything is extremely clean, friendly and accommodating staff and easy in and out pathways. Their breakfast was a little less tasty then other La Quintas we've stayed in, but waffles and sausage worked for me.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r558878630-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
   </si>
   <si>
@@ -304,9 +445,6 @@
     <t>Upon visiting this establishment I must say what an awesome place the hotel staff is great the Decour inside is lovely breakfast is good the beds are marvelous and the hot tub is totally magical… Make sure if you visit here you’re looking for a great night sleep because you will find it here and if you’re looking for some relaxation get into that hot tub and it’ll take your breath away</t>
   </si>
   <si>
-    <t>February 2018</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r553166248-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
   </si>
   <si>
@@ -340,6 +478,36 @@
     <t>December 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r547393067-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>547393067</t>
+  </si>
+  <si>
+    <t>12/15/2017</t>
+  </si>
+  <si>
+    <t>Excellent Service</t>
+  </si>
+  <si>
+    <t>Excellent service for our long term stay.  Elizabeth is always so helpful knows exactly who I am when I call for reservations.  The staff is top notch and the hotel has taken very good care of our employees staying there.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r545159761-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>545159761</t>
+  </si>
+  <si>
+    <t>12/04/2017</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>We really enjoyed our stay. We stayed there because of a basketball tournament so it was convenient. The receptionist was very nice and helped us out. We had a great stay. Thank you Valerie for helping us.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r535488076-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
   </si>
   <si>
@@ -394,6 +562,39 @@
     <t>September 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r528254470-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>528254470</t>
+  </si>
+  <si>
+    <t>09/29/2017</t>
+  </si>
+  <si>
+    <t>Helping after hurricane harvey</t>
+  </si>
+  <si>
+    <t>We were in the area helping hurricane harvey and choose this hotel due to its location off I-10 in Brookshire.  Easy to get in and out of from the freeway.  The checkin was smooth even with a full house.  The renovated rooms were a refreshingly nicely furnished.  Nice decor and furniture.  We spent a decent amount of time in hotels and this location and staff was was pretty nice.  The continental Breakfast was ok.  Would stay again next time in brookshire.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r527916031-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>527916031</t>
+  </si>
+  <si>
+    <t>09/27/2017</t>
+  </si>
+  <si>
+    <t>I expect more from a hotel room</t>
+  </si>
+  <si>
+    <t>I do want to say the room was clean. However, it smelled musty and the sheets had holes. The sheets with holes was especially confusing since the fruniture seemed fairly new. If I ran a hotel I'd replace sheets before or at least at the same time as the fruniture. The odddst thing to me was the breakfast that was offered. The bread was still in the hill country fare bag it came in. There was a community jar of jelly, an industrial sized can of peanut butter and butter in a butter dish. I have never seen that at any hotel I stayed in. Generally those items tend to be in individual use containers. I would not want to stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>I do want to say the room was clean. However, it smelled musty and the sheets had holes. The sheets with holes was especially confusing since the fruniture seemed fairly new. If I ran a hotel I'd replace sheets before or at least at the same time as the fruniture. The odddst thing to me was the breakfast that was offered. The bread was still in the hill country fare bag it came in. There was a community jar of jelly, an industrial sized can of peanut butter and butter in a butter dish. I have never seen that at any hotel I stayed in. Generally those items tend to be in individual use containers. I would not want to stay here again. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r510942799-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
   </si>
   <si>
@@ -454,6 +655,36 @@
     <t>La Quinta can't be beat for the value.  Very clean rooms and great customer service.  The Wi-Fi is fast and easy to access.  There is also a clean pool and work-out room with handy access.  The breakfast has a decent selection and fresh fruit and juice.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r498692216-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>498692216</t>
+  </si>
+  <si>
+    <t>07/04/2017</t>
+  </si>
+  <si>
+    <t>Wedding and Pups</t>
+  </si>
+  <si>
+    <t>The staff was great, the room was nice, the place was well maintained. There for a wedding and had a couple of small dogs, so La Quinta always works.My only two concerns: 1) hot tub is not hot. Have encountered this in other La Quintas. Skipping for cost. 2) Fox News. I understand the area, but really, other people stay. Not even in the rooms, and all alternatives.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r498744278-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>498744278</t>
+  </si>
+  <si>
+    <t>Excellent hotel!</t>
+  </si>
+  <si>
+    <t>It was clean, comfortable, and the staff was excellent.  I missed breakfast because I was getting much needed sleep. The hotel looks new but found out it was actually about 10 years old.  It did not look it!  The front desk told me they were putting all new furniture in the rooms.   I would definitely stay there again.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r495266757-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
   </si>
   <si>
@@ -469,9 +700,6 @@
     <t>Pee on pull out sofa in one room, exposed electrical outlets in another offer and gave thid room a credit then took it back. Now offer 20%. Kids could have been shocked. No sofa bed made in another room they were aware would be used.  Parking was horrible.  We booked the whole hotel and paid way to much for block. Priced $25 less on this site.  I sent others to Holiday inn express up the road. They got a better price and much nicer hotel.  Gm is worthless.  So happy I never have to stay here again.  Staff was very nice though. Hats off to them MoreShow less</t>
   </si>
   <si>
-    <t>June 2017</t>
-  </si>
-  <si>
     <t>LQ Customer Car... T, LQ Customer Care at La Quinta Inn &amp; Suites Brookshire, responded to this reviewResponded June 27, 2017</t>
   </si>
   <si>
@@ -523,6 +751,39 @@
     <t>I absolutely LOVE staying here!  The staff is SO friendly, accommodating and courteous!  They are currently upgrading everything and it looks beautiful!  The breakfast is wonderful (especially the waffles!!) and the location is great!</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r488229283-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>488229283</t>
+  </si>
+  <si>
+    <t>Friendliest and most accommodating hotel on I-10 perfect for business or pleasure</t>
+  </si>
+  <si>
+    <t>I can't believe I am so impressed with a hotel in Brookshire that I would take the time to write a review! It is seriously my favorite hotel to stay in for business because of the location and especially the accommodating staff.  The waffles in the morning are to die for and the coffee is great.  It is a quiet hotel with a nice pool and is the perfect  spot to get work done with no distractions! There is a wonderful place for lunch across the street called Brookwood Cafe.  It is part of a community for adults with disabilities with a chef from the Four Seasons and I just found out the chef at the Cafe has been  a judge on Iron Chef! In Brookshire.....yes Brookshire. I highly recommend staying here if you are coming to the water park (much lower rates than Katy) ...... if you are attending an event at Brookwood or just for fun!MoreShow less</t>
+  </si>
+  <si>
+    <t>I can't believe I am so impressed with a hotel in Brookshire that I would take the time to write a review! It is seriously my favorite hotel to stay in for business because of the location and especially the accommodating staff.  The waffles in the morning are to die for and the coffee is great.  It is a quiet hotel with a nice pool and is the perfect  spot to get work done with no distractions! There is a wonderful place for lunch across the street called Brookwood Cafe.  It is part of a community for adults with disabilities with a chef from the Four Seasons and I just found out the chef at the Cafe has been  a judge on Iron Chef! In Brookshire.....yes Brookshire. I highly recommend staying here if you are coming to the water park (much lower rates than Katy) ...... if you are attending an event at Brookwood or just for fun!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r464668236-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>464668236</t>
+  </si>
+  <si>
+    <t>03/04/2017</t>
+  </si>
+  <si>
+    <t>Annual trip to Brookshire</t>
+  </si>
+  <si>
+    <t>I have stayed here for the last 8-10 years, annually when I come in for an industry event. It is clean and convenient, the staff is friendly.  I look forward to more stays here when I attend this annual event.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r456839305-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
   </si>
   <si>
@@ -574,6 +835,36 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r447078901-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>447078901</t>
+  </si>
+  <si>
+    <t>12/27/2016</t>
+  </si>
+  <si>
+    <t>Brookshire hotel great service</t>
+  </si>
+  <si>
+    <t>Made a quick reservation for brookshire at this La Quinta.  Couldnt have been more pleased.  The staff made our visit to Brookshire   very comfortable.  Nice rooms.   The breakfast was typical with not a lot of options,  but thats decent for this location.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r442136000-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>442136000</t>
+  </si>
+  <si>
+    <t>12/05/2016</t>
+  </si>
+  <si>
+    <t>Awesome staff and location in Brookshire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We had a great visit to Brookshire and stayed at the La Quinta, The hotel is very nice and the reception ladies were very helpful with us.  They had us in a nice 2 room with a living room which was awesome. I liked the rooms as it was great for our kids to watch tv in one side while we watched Tv in the other room. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r427564084-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
   </si>
   <si>
@@ -637,6 +928,36 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r362662926-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>362662926</t>
+  </si>
+  <si>
+    <t>04/08/2016</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r360366743-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>360366743</t>
+  </si>
+  <si>
+    <t>03/31/2016</t>
+  </si>
+  <si>
+    <t>more like three and a half dots</t>
+  </si>
+  <si>
+    <t>We were going to a weekend event at the Stephen F. Austin State Park, which is approx 15 min away.  Since we were somewhat in the middle of nowhere, I was glad to find this hotel because I didn't want to stay in the motels that were closer to the park.  It's not of the same quality of the La Quintas in the city, as there are some grey marks on the room doors, which give the hotel a somewhat worn down look. But all in all the hotel was definitely good enough for what we needed.  The room was clean but had a slightly musty smell in the afternoons.  The breakfast is basic and honestly if you are a healthy eater, bring your own food and store it in the mini fridge in your room.  The front desk staff, Valerie was very nice, professional, and accommodating.  She allowed us to check in earlier than their usual 3pm time. The location is right off the freeway which is convenient.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were going to a weekend event at the Stephen F. Austin State Park, which is approx 15 min away.  Since we were somewhat in the middle of nowhere, I was glad to find this hotel because I didn't want to stay in the motels that were closer to the park.  It's not of the same quality of the La Quintas in the city, as there are some grey marks on the room doors, which give the hotel a somewhat worn down look. But all in all the hotel was definitely good enough for what we needed.  The room was clean but had a slightly musty smell in the afternoons.  The breakfast is basic and honestly if you are a healthy eater, bring your own food and store it in the mini fridge in your room.  The front desk staff, Valerie was very nice, professional, and accommodating.  She allowed us to check in earlier than their usual 3pm time. The location is right off the freeway which is convenient.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r353444582-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
   </si>
   <si>
@@ -652,9 +973,6 @@
     <t>One of the better La Quinta's I've stayed at with my 2 dogs on a cross-country move.  There was chipping paint on the bathtub, but that's not significant in my opinion.  The staff was accommodating and gave me a first floor room near an exit door closest to the dog walk area.  Interestingly, there are horses next door which are very sweet and friendly.  There are also dogs roaming...obviously not the fault of the hotel.  It made me a little nervous walking my dogs, but no incidents, so not a big deal.  I would definitely stay here again.</t>
   </si>
   <si>
-    <t>March 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r345714115-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
   </si>
   <si>
@@ -694,6 +1012,39 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r339786939-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>339786939</t>
+  </si>
+  <si>
+    <t>01/13/2016</t>
+  </si>
+  <si>
+    <t>New, clean, excellent dog walking area</t>
+  </si>
+  <si>
+    <t>Newer hotel 38 miles west of Houston. Rooms are nice, clean and large. Lots of grassy area in the back and a really nice butterfly garden near the pool. Mexican restaurant up the street near the Exxon is a great place for dinner.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r334434310-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>334434310</t>
+  </si>
+  <si>
+    <t>12/21/2015</t>
+  </si>
+  <si>
+    <t>Great!</t>
+  </si>
+  <si>
+    <t>The hotel was very nice and clean. Great spot in a small town! Will recommend to family coming into the area. Ankur (general manager) was great to work with. We were greeted and our room was ready upon arrival (we were early I might add).</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r332688667-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
   </si>
   <si>
@@ -755,6 +1106,39 @@
   </si>
   <si>
     <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r295129041-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>295129041</t>
+  </si>
+  <si>
+    <t>08/02/2015</t>
+  </si>
+  <si>
+    <t>Great dog walking.</t>
+  </si>
+  <si>
+    <t>We love La Quintas because of their very welcoming pet policy (we have two 55 lb dogs).  We stayed at this one by chance as we got caught by bad weather and had to make an early stop.  Lucky us.  The hotel is new so the rooms were great.  The real bonus for us was that the hotel sits by itself surrounded by fields on all sides making it a treat for our dogs after a long day in the car.  Also, the staff was extremely friendly</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r287503241-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>287503241</t>
+  </si>
+  <si>
+    <t>07/07/2015</t>
+  </si>
+  <si>
+    <t>First time to Brookshire</t>
+  </si>
+  <si>
+    <t>We stayed at the LaQuinta in Brookshire, TX during our granddaughter's wedding at the Brookwood Community.  This hotel was clean, the staff was very attentive, and the location was perfect.  Easy on/off freeway access, and close enough to Houston/Katy that it was not a hassle to go anywhere.  Nice for the price!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r285774061-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
@@ -806,9 +1190,6 @@
     <t>We were in town for a wedding. This is where the bridal party booked a block of rooms for the guests. The hotel was basically clean and cool (air conditioning). The rooms were fine. Nice size.  Bathrooms were also a nice size but could use a bit of freshening up.  Nice stay overall</t>
   </si>
   <si>
-    <t>June 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r281809785-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
   </si>
   <si>
@@ -833,6 +1214,39 @@
     <t>I have no idea of why this location is listed as a new hotel on the LQ website. This is the worst LQ hotel that I've ever stayed at. Our family only stays at LQ and I am very disappointed. This building is dirty and is in disrepair. Not what I expected from the LaQuinta brand. We had the most issues in our bathroom. The caulking/paint is damaged, 2 towels had stains on them and the shower head was deplorable. We asked for extra towels and the front desk wrote that down in front of us. Trust me the towels I own are of much better quality. I was not trying to steal those towels. I was very disappointed with the breakfast service. Only offering 6 tables to 20+ Saturday morning families makes for an uncomfortable and stressful experience. I had to go to the front desk to see if additional seating was offered, had to ask them to clean the tables and had to ask them to refill the food options. They ran out of multiple options with an hour still left in the service. Staff were courteous and accomodating during all interactions. I am on vacation. I don't want to have to clean! Will not return. Would steer any friends/family away from this location.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r277927890-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>277927890</t>
+  </si>
+  <si>
+    <t>06/04/2015</t>
+  </si>
+  <si>
+    <t>Nice quick stay off I-10</t>
+  </si>
+  <si>
+    <t>Spotted this LQ driving across texas on I-ten.  Glad we made the visit as the guy working checked us in quick with a great rate.  Nice dude helped us out with some good places to eat in the area too.  Rooms were nice and well kept.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r275451412-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>275451412</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Great Staff!!  Perfect room for the price</t>
+  </si>
+  <si>
+    <t>The staff was amazingly helpful and outgoing.  The room and bathroom were clean and comfortable.  I look forward to staying here again in the near future.  I love that the employees are Game Changers and go all out for their customers.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r271543969-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
   </si>
   <si>
@@ -848,9 +1262,6 @@
     <t>This hotel is fantastic.  Very clean, nice and accommodating staff.  I booked in Brookshire versus Katy,Texas because the price was appealing and its only 7 miles away.  So glad I chose this hotel.  I will definitely return!</t>
   </si>
   <si>
-    <t>May 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r250504440-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
   </si>
   <si>
@@ -884,6 +1295,39 @@
     <t>I absolutely loved this hotel. Super nice staff! The location was secluded and beautiful yet still convenient. The room was amazingly clean and perfect even for a picky mom like my self. There breakfast was way better than I expected and the beds were comfortable.. My self and family were just passing through and needed to stop and rest but if we weren't in mid trip to Beaumont I wouldn't have minded staying longer to relax at this great hotel that was worth every penny in my opinion. Good job to whoever own/manages this hotel.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r250206065-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>250206065</t>
+  </si>
+  <si>
+    <t>Great Staff- Clean- Comfortable! SO GLAD WE CHOSE THIS ONE!</t>
+  </si>
+  <si>
+    <t>My family and I had a 2 day event to attend at the Merrell Center in Katy Texas and we needed a pet friendly hotel for our French bulldog Louie. There was a La Quinta in Katy that was closer to the event center but after seeing the reviews on here (THANK YOU tripadvisor) we decided to drive a few extra miles and I am so glad we did! The staff at La Quinta Inn &amp; Suites in Brookshire Texas were beyond great! The hotel was accommodating and offered a military discount which I am grateful for. The lady that checked us in thanked my husband for his service and gave all of us a free drink from the snack bar.Little things like that go a long way and mean so much to our family! The rooms were so clean and comfortable! The bathrooms were SPOTLESS and everything smelled so clean! I have stayed in hotels in the past that were pet friendly and our Louie would smell everything for HOURS -finding every place another dog had an "accident" and that always grosses me out. He is very potty trained so I think he does this to tattle tale on everyone else! HA! However at this hotel he didn't find anything THE ENTIRE time we were there other than the designated "POTTY PATCH" located outside. YAY!! Oh and one more thing- we were at the event center VERY late so...My family and I had a 2 day event to attend at the Merrell Center in Katy Texas and we needed a pet friendly hotel for our French bulldog Louie. There was a La Quinta in Katy that was closer to the event center but after seeing the reviews on here (THANK YOU tripadvisor) we decided to drive a few extra miles and I am so glad we did! The staff at La Quinta Inn &amp; Suites in Brookshire Texas were beyond great! The hotel was accommodating and offered a military discount which I am grateful for. The lady that checked us in thanked my husband for his service and gave all of us a free drink from the snack bar.Little things like that go a long way and mean so much to our family! The rooms were so clean and comfortable! The bathrooms were SPOTLESS and everything smelled so clean! I have stayed in hotels in the past that were pet friendly and our Louie would smell everything for HOURS -finding every place another dog had an "accident" and that always grosses me out. He is very potty trained so I think he does this to tattle tale on everyone else! HA! However at this hotel he didn't find anything THE ENTIRE time we were there other than the designated "POTTY PATCH" located outside. YAY!! Oh and one more thing- we were at the event center VERY late so the snack bar came in HANDY at this hotel. It has a great affordable selection and it's open 24 hours and they have everything from ice cream to hot pockets. I can't say enough about the staff and the cleanliness of this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>My family and I had a 2 day event to attend at the Merrell Center in Katy Texas and we needed a pet friendly hotel for our French bulldog Louie. There was a La Quinta in Katy that was closer to the event center but after seeing the reviews on here (THANK YOU tripadvisor) we decided to drive a few extra miles and I am so glad we did! The staff at La Quinta Inn &amp; Suites in Brookshire Texas were beyond great! The hotel was accommodating and offered a military discount which I am grateful for. The lady that checked us in thanked my husband for his service and gave all of us a free drink from the snack bar.Little things like that go a long way and mean so much to our family! The rooms were so clean and comfortable! The bathrooms were SPOTLESS and everything smelled so clean! I have stayed in hotels in the past that were pet friendly and our Louie would smell everything for HOURS -finding every place another dog had an "accident" and that always grosses me out. He is very potty trained so I think he does this to tattle tale on everyone else! HA! However at this hotel he didn't find anything THE ENTIRE time we were there other than the designated "POTTY PATCH" located outside. YAY!! Oh and one more thing- we were at the event center VERY late so...My family and I had a 2 day event to attend at the Merrell Center in Katy Texas and we needed a pet friendly hotel for our French bulldog Louie. There was a La Quinta in Katy that was closer to the event center but after seeing the reviews on here (THANK YOU tripadvisor) we decided to drive a few extra miles and I am so glad we did! The staff at La Quinta Inn &amp; Suites in Brookshire Texas were beyond great! The hotel was accommodating and offered a military discount which I am grateful for. The lady that checked us in thanked my husband for his service and gave all of us a free drink from the snack bar.Little things like that go a long way and mean so much to our family! The rooms were so clean and comfortable! The bathrooms were SPOTLESS and everything smelled so clean! I have stayed in hotels in the past that were pet friendly and our Louie would smell everything for HOURS -finding every place another dog had an "accident" and that always grosses me out. He is very potty trained so I think he does this to tattle tale on everyone else! HA! However at this hotel he didn't find anything THE ENTIRE time we were there other than the designated "POTTY PATCH" located outside. YAY!! Oh and one more thing- we were at the event center VERY late so the snack bar came in HANDY at this hotel. It has a great affordable selection and it's open 24 hours and they have everything from ice cream to hot pockets. I can't say enough about the staff and the cleanliness of this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r237592843-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>237592843</t>
+  </si>
+  <si>
+    <t>11/02/2014</t>
+  </si>
+  <si>
+    <t>Nice, clean hotel</t>
+  </si>
+  <si>
+    <t>I was very pleased with my stay here. The room was clean, bed comfortable. This hotel is just outside of Houston on I-10. Close enough to make a trip into Houston, far enough out that it's away from the hustle and bustle. It is very close to Bass Pro Shops, which my husband was very excited for.  The continental breakfast was simply OK., but what do you expect? They do have the "Texas" waffle maker" along with eggs, biscuits and gravy. Not much in the way of fresh fruit. I would definitely stay here again though.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r235988165-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
   </si>
   <si>
@@ -932,6 +1376,33 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r218808261-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>218808261</t>
+  </si>
+  <si>
+    <t>Clean and Quiet Stay</t>
+  </si>
+  <si>
+    <t>My stay at the Brookshire LaQuinta was very nice.  The staff met me with a warm smile and courteous greeting.  The room was clean and very nice.  The pool was clean and there were many guests enjoying it.  The breakfast was O.K. just because I don't really care for powdery eggs.  The night staff was very prompt in getting the breakfast out at the specified time. I stay at this hotel because it is halfway between Sealy and Katy.  There are many restaurants to choose from in nearby Katy plus BassPro Shop is one of my favorite places.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r217369078-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>217369078</t>
+  </si>
+  <si>
+    <t>07/23/2014</t>
+  </si>
+  <si>
+    <t>LaQuinta Inn in Brookshire, Texas</t>
+  </si>
+  <si>
+    <t>This hotel has one of the best check in clerks anywhere. This hotel is near a very imprtant customer and they make my stay very pleasant and comfortable. I stay at this hotel because of the clerk that checks me in when I arrive. I have always had a very nice room and pleasant experiences here in the past.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r217368588-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
   </si>
   <si>
@@ -977,6 +1448,33 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r200403474-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>200403474</t>
+  </si>
+  <si>
+    <t>04/08/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r198133775-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>198133775</t>
+  </si>
+  <si>
+    <t>03/13/2014</t>
+  </si>
+  <si>
+    <t>A Little Out Of The Way</t>
+  </si>
+  <si>
+    <t>This hotel is furthur out of the Katy area then I prefer, but it is a relatively new facility and the price was right. I had planned to stay for one night, but could not get home the following day because of an ice storm. The heating unit in my room quit during the night, so the hotel moved me to a new room and gave me the same promotional price for the second night. I will consider this hotel the next time I am in the area.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r196083289-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
   </si>
   <si>
@@ -992,9 +1490,6 @@
     <t>The room was updated nicely. I loved the recliner in the room for reading. The wifi was running slow. The breakfast had hot items as well as cereals and muffins. I missed not having yogurt that most of the other La Quintas have.</t>
   </si>
   <si>
-    <t>March 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r195288669-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
   </si>
   <si>
@@ -1031,6 +1526,42 @@
     <t>I have stayed at several La Quintas with no complaints. This was by far the worst hotel I have ever stayed out. After reading the reviews on this site, I thought I had found a good hotel to stay at. I was wrong. If you don't want to hear drunk people all night long, then stay away!!!!!! There was a huge group staying at this hotel for a wedding. They were loud and constantly making noises throughout the two nights I was there. The first night, I complained to the manager, and he reassured me that it would not happen again. Well, the party continued the following night. Unfortunately, the hotel can't choose who gets to stay there. I will not be returning.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r191008184-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>191008184</t>
+  </si>
+  <si>
+    <t>01/15/2014</t>
+  </si>
+  <si>
+    <t>Our stay in LaQuinta in Brookshire, Texas</t>
+  </si>
+  <si>
+    <t>Our stay was very comfortable and pleasant.  It was very close to the Hovas group of activities, and we appreciated the discount.  The breakfast was adequate and served my needs as a diabetic.  The room was very convenient for me as a person who has had many back surgeries.  No complaints.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r189185293-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>189185293</t>
+  </si>
+  <si>
+    <t>12/31/2013</t>
+  </si>
+  <si>
+    <t>UNDISCLOSED PET CHARGE</t>
+  </si>
+  <si>
+    <t>LaQuinta Inns are well known for being pet friendly - that's why I have stayed with them almost exclusively for many years.  This inn's web profile merely says "Pet Friendly." THEY DO HAVE FURTHER EXCEPTIONS, WHICH SHOULD HAVE BEEN DISCLOSED IN ADVANCE!  Upon check-in I was advised that there would be a $75 fee unless I provided my dogs' health papers (they did finally accept copies of rabies certificates)  and that they wear flea collars.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r187138600-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
   </si>
   <si>
@@ -1044,9 +1575,6 @@
   </si>
   <si>
     <t>Smells like dog and dog poo. Constant barking. They allow pets but don't care if they are responsible or not. Apparently they don't clean the carpets very well after the dogs leave.  The service was fine but if you don't like smelling or listening to dogs then don't stay here.MoreShow less</t>
-  </si>
-  <si>
-    <t>December 2013</t>
   </si>
   <si>
     <t>awlq, Manager at La Quinta Inn &amp; Suites Brookshire, responded to this reviewResponded December 11, 2013</t>
@@ -1109,6 +1637,30 @@
 Then east and south onto Galveston Island.  Should...Visiting our son and family in Katy.  Had to be a pet friendly establishment.  And from a traffic perspective, being west of Katy seemed the best move.  Hence we selected the La Quinta in Brookshire.The property is very easy to find, right off the freeway exit in a relatively unbuilt up area.  We arrived well before check in time (on a Friday afternoon).    Front desk was able to get us into a room quickly nonetheless on the first floor in the wing to the left of the lobby.Very attractive room with all the expected amenities to include free hi speed internet, all of which worked well.   Walked the pooch around the building, freshened up and headed east to Katy speeding along while the traffic going west was sluggish.   By the time we returned that evening the traffic had cleared.Everyone slept well to a more reasonable waking hour finally adjusting to central time after three days.     No complaints about the beds or AC.Breakfast was fine with cereals, biscuits and gravy, hard boiled eggs, etc.  Noticed there was only regular coffee available.  Mentioned it to the attendant who quickly brewed some decaf for us.  Later as we were passing through the lobby on the way out, we noticed a pretty good crowd in the breakfast room, including a few kids who had to take a break to pet our pooch.Then east and south onto Galveston Island.  Should note that Houston bound traffic was quite light, as it should be on a Saturday morning.  Just an excellent stay, and can recommend the hotel with or without pets.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r175337415-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>175337415</t>
+  </si>
+  <si>
+    <t>09/02/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r172141273-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>172141273</t>
+  </si>
+  <si>
+    <t>08/13/2013</t>
+  </si>
+  <si>
+    <t>Great staff</t>
+  </si>
+  <si>
+    <t>I have stayed here several times. The staff is wonderful! Wedding weekends can be quite noisy, but otherwise great location, comfortable rooms and a good breakfast in the morning. I will be staying again.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r165125730-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
   </si>
   <si>
@@ -1151,6 +1703,42 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r159033746-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>159033746</t>
+  </si>
+  <si>
+    <t>04/28/2013</t>
+  </si>
+  <si>
+    <t>Super friendly super nice</t>
+  </si>
+  <si>
+    <t>My spouse and I reserved a room for the weekend of  April 20th 2013.  The staff could not been nicer, Jessica was outstanding, even taking the time to ask if we wanted our photo taken together  as we left for the ceremony.  The bed was extremely comfortable, in fact we came lose to missing everybody in the morning because we slept so late. The fact that it is super pet friendly which is a good thing to know she coming in from out of town.  The breakfast was not and plentyful and the staff quicy restocked when they saw things run ing low.   The price was very reasonable.  The room had a microwave and a decent sized fridge.  I would high recommend this hotel to anybody .MoreShow less</t>
+  </si>
+  <si>
+    <t>My spouse and I reserved a room for the weekend of  April 20th 2013.  The staff could not been nicer, Jessica was outstanding, even taking the time to ask if we wanted our photo taken together  as we left for the ceremony.  The bed was extremely comfortable, in fact we came lose to missing everybody in the morning because we slept so late. The fact that it is super pet friendly which is a good thing to know she coming in from out of town.  The breakfast was not and plentyful and the staff quicy restocked when they saw things run ing low.   The price was very reasonable.  The room had a microwave and a decent sized fridge.  I would high recommend this hotel to anybody .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r153415977-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>153415977</t>
+  </si>
+  <si>
+    <t>02/28/2013</t>
+  </si>
+  <si>
+    <t>Awesome Location</t>
+  </si>
+  <si>
+    <t>It was clean, fresh smelling throughout the location. Thee staff was extremely courteous and outgoing. The hot tub was awesome, really polishing off a good night sleep.  The coffee and breakfast were good. I really wish there were movies on demand, but otherwise it was a class act amongst La Quinta hotels.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r152907732-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
   </si>
   <si>
@@ -1160,9 +1748,6 @@
     <t>02/23/2013</t>
   </si>
   <si>
-    <t>February 2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r152468205-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
   </si>
   <si>
@@ -1190,6 +1775,33 @@
     <t>January 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r149185089-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>149185089</t>
+  </si>
+  <si>
+    <t>01/08/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r144785029-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>144785029</t>
+  </si>
+  <si>
+    <t>11/06/2012</t>
+  </si>
+  <si>
+    <t>Good location, quiet stay</t>
+  </si>
+  <si>
+    <t>I enjoyed my one night stay here for business travel. The staff was excellent and very friendly. My room was very clean and the furnishings were in good condition. The breakfast was better than my one previous La Qunita stay and they had it up and running at 6 am. Brookshire itself doesn't have much of anything, but Katy and the Katy Outlets are only about 10-15 mintues away. My room was nice and quiet and I didn't have any issues. The fitness center was large with a treadmill, elliptical and weights. My room was absolutely enormous (suite) with separate bedroom/living room/bathroom.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r140633284-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
   </si>
   <si>
@@ -1238,6 +1850,36 @@
     <t>08/08/2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r132383236-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>132383236</t>
+  </si>
+  <si>
+    <t>06/20/2012</t>
+  </si>
+  <si>
+    <t>best we found in Brookshire</t>
+  </si>
+  <si>
+    <t>We spent one night at another motel and decided to change to La Quinta after looking at a third option. We were glad we made the choice, even though the rate is a bit higher than the competition. The increase in quality was worth it. Check-in was easy and we got a room we liked. A/C is efficient but loud. Linens and towels OK. Nice bed. WiFi. A typical motel breakfast included.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r130652102-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>130652102</t>
+  </si>
+  <si>
+    <t>05/26/2012</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r128444232-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
   </si>
   <si>
@@ -1293,6 +1935,52 @@
   </si>
   <si>
     <t>The day before checkout, the used towels were removed but not replaced.  Since I had gotten back to the hotel very late (after midnight) and was very tired and did not notice the lack of towels until I had changed into my sleeping attire, I decided to dry off from my shower the next morning with the hand towel.  Someone was not paying attention when the room was made up that day.Every morning of my stay (four days), there were 40 people for breakfast between 6:30 and 7:00 AM.  Sunday morning, they obviously were not expecting anyone for breakfast because there was hardly any food out at 6:30.  By the time the food was available at 7, everyone had to leave without eating.  The type of group that was there was similar to other groups that previously used the hotel in the past and the staff should have been aware that we, just like similar groups in the past, would be wanting breakfast on Sunday morning at 6:30 AM.  The group I was with was associated with corporate training close by and similar groups recur on a regular basis.  The hotel is very much aware when this type of group is staying with them.In spite of the minor problems I would recommend this hotel.  These problems are fixable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r68064442-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>68064442</t>
+  </si>
+  <si>
+    <t>06/20/2010</t>
+  </si>
+  <si>
+    <t>Unbelievable attention to customer service &amp; quality!!!</t>
+  </si>
+  <si>
+    <t>I am not one to write arcane review of hotels all of the time, nor share every waking thought with the universe. I am a professional by trade, but I must take the time to share our amazing experience with this establishment. My family of 5 arrived at this LaQuinta after already having reservations at Drury Inn in Katy. We made it to the room @ the Drury and looked like we stepped back about 30 years. The rooms were small, old &amp; unrefined. This was not the 2-bedroom suite that we were accustomed to staying in the newer Drury Inns in MS &amp; AL. 
+We reluctantly checked out and drove around for a least an hour trying to find a suitable hotel for a family plus our dear border collie. Most hotels are still not pet friendly and the rest were just as old as the one recently evacuated. We stumbled upon the LaQuinta Brookshire totally by accident and what an amazing experience. The front desk agent was very kind, friendly and extremely helpful. He showed me 3 rooms and gave us an excellent price on a fabulous 2-bedroom suite. (Room 225) 
+The hotel is new and the suite was very well appointed. New beds, linens, decor, flat screen TVs ---- everything was top-notch! They welcomed our beautiful dog for free with open arms and made us feel like part of the family. Now THIS is what I call...I am not one to write arcane review of hotels all of the time, nor share every waking thought with the universe. I am a professional by trade, but I must take the time to share our amazing experience with this establishment. My family of 5 arrived at this LaQuinta after already having reservations at Drury Inn in Katy. We made it to the room @ the Drury and looked like we stepped back about 30 years. The rooms were small, old &amp; unrefined. This was not the 2-bedroom suite that we were accustomed to staying in the newer Drury Inns in MS &amp; AL. We reluctantly checked out and drove around for a least an hour trying to find a suitable hotel for a family plus our dear border collie. Most hotels are still not pet friendly and the rest were just as old as the one recently evacuated. We stumbled upon the LaQuinta Brookshire totally by accident and what an amazing experience. The front desk agent was very kind, friendly and extremely helpful. He showed me 3 rooms and gave us an excellent price on a fabulous 2-bedroom suite. (Room 225) The hotel is new and the suite was very well appointed. New beds, linens, decor, flat screen TVs ---- everything was top-notch! They welcomed our beautiful dog for free with open arms and made us feel like part of the family. Now THIS is what I call a 2-bedroom suite! (worthy of our time &amp; money!) I like the fact that the hotel is just a few miles west of Katy Mills shopping area. It is close to lots of commercial interests while still being a gem on the quiet side of the proverbial strip. I can promise you this. You will not be disappointed in this hotel. The breakfast was moderate, (hot &amp; cold food)  commensurate with most hotels in this price range. The pool was also very nice &amp; enjoyed by our children. There is nothing I would change about this property. It is filled with quality from top to bottom and managed extremely well! I look forward to looking at more LaQuinta hotels in the future simply because of the incredible experience we had at this location.Thank you La Quinta Brookshire!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>I am not one to write arcane review of hotels all of the time, nor share every waking thought with the universe. I am a professional by trade, but I must take the time to share our amazing experience with this establishment. My family of 5 arrived at this LaQuinta after already having reservations at Drury Inn in Katy. We made it to the room @ the Drury and looked like we stepped back about 30 years. The rooms were small, old &amp; unrefined. This was not the 2-bedroom suite that we were accustomed to staying in the newer Drury Inns in MS &amp; AL. 
+We reluctantly checked out and drove around for a least an hour trying to find a suitable hotel for a family plus our dear border collie. Most hotels are still not pet friendly and the rest were just as old as the one recently evacuated. We stumbled upon the LaQuinta Brookshire totally by accident and what an amazing experience. The front desk agent was very kind, friendly and extremely helpful. He showed me 3 rooms and gave us an excellent price on a fabulous 2-bedroom suite. (Room 225) 
+The hotel is new and the suite was very well appointed. New beds, linens, decor, flat screen TVs ---- everything was top-notch! They welcomed our beautiful dog for free with open arms and made us feel like part of the family. Now THIS is what I call...I am not one to write arcane review of hotels all of the time, nor share every waking thought with the universe. I am a professional by trade, but I must take the time to share our amazing experience with this establishment. My family of 5 arrived at this LaQuinta after already having reservations at Drury Inn in Katy. We made it to the room @ the Drury and looked like we stepped back about 30 years. The rooms were small, old &amp; unrefined. This was not the 2-bedroom suite that we were accustomed to staying in the newer Drury Inns in MS &amp; AL. We reluctantly checked out and drove around for a least an hour trying to find a suitable hotel for a family plus our dear border collie. Most hotels are still not pet friendly and the rest were just as old as the one recently evacuated. We stumbled upon the LaQuinta Brookshire totally by accident and what an amazing experience. The front desk agent was very kind, friendly and extremely helpful. He showed me 3 rooms and gave us an excellent price on a fabulous 2-bedroom suite. (Room 225) The hotel is new and the suite was very well appointed. New beds, linens, decor, flat screen TVs ---- everything was top-notch! They welcomed our beautiful dog for free with open arms and made us feel like part of the family. Now THIS is what I call a 2-bedroom suite! (worthy of our time &amp; money!) I like the fact that the hotel is just a few miles west of Katy Mills shopping area. It is close to lots of commercial interests while still being a gem on the quiet side of the proverbial strip. I can promise you this. You will not be disappointed in this hotel. The breakfast was moderate, (hot &amp; cold food)  commensurate with most hotels in this price range. The pool was also very nice &amp; enjoyed by our children. There is nothing I would change about this property. It is filled with quality from top to bottom and managed extremely well! I look forward to looking at more LaQuinta hotels in the future simply because of the incredible experience we had at this location.Thank you La Quinta Brookshire!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d1236786-r62026914-La_Quinta_Inn_Suites_Brookshire-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>62026914</t>
+  </si>
+  <si>
+    <t>04/20/2010</t>
+  </si>
+  <si>
+    <t>Terrific Management and Customer Service</t>
+  </si>
+  <si>
+    <t>We have stayed at this location several times in the past year and everything here is terrific.  The management and staff are incredibly friendly, efficient, and helpful.  This location is virtually brand new, the rooms are modern with great TVs, comfortable beds, and a beautiful lobby.  We stayed here over the Easter Holiday (after having been thrown out of the LaQuinta Katy location for telling manager she had a poor attitude) and not only were we welcomed here with our pets in the two rooms we reserved for three nights, but one of our dogs was sick in the middle of the night and the night manager went above and beyond to assist us with a very difficult situation.  We needed extra laundry service, etc. due to our pets illness and while I expected a charge for the extra services they are so hospitable here they did not even charge us.  Great job Brookshire team, we will be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>We have stayed at this location several times in the past year and everything here is terrific.  The management and staff are incredibly friendly, efficient, and helpful.  This location is virtually brand new, the rooms are modern with great TVs, comfortable beds, and a beautiful lobby.  We stayed here over the Easter Holiday (after having been thrown out of the LaQuinta Katy location for telling manager she had a poor attitude) and not only were we welcomed here with our pets in the two rooms we reserved for three nights, but one of our dogs was sick in the middle of the night and the night manager went above and beyond to assist us with a very difficult situation.  We needed extra laundry service, etc. due to our pets illness and while I expected a charge for the extra services they are so hospitable here they did not even charge us.  Great job Brookshire team, we will be back.More</t>
   </si>
 </sst>
 </file>
@@ -1827,7 +2515,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1837,14 +2525,10 @@
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>5</v>
-      </c>
+      <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1891,17 +2575,13 @@
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
         <v>53</v>
       </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
       <c r="R3" t="n">
         <v>5</v>
       </c>
@@ -1934,37 +2614,37 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
         <v>60</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>61</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>62</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>63</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
         <v>64</v>
       </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>59</v>
-      </c>
-      <c r="O4" t="s">
-        <v>65</v>
-      </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q4" t="n">
         <v>5</v>
@@ -1977,7 +2657,7 @@
       </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1985,7 +2665,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
@@ -2001,50 +2681,44 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
         <v>66</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>67</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>68</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>69</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>70</v>
       </c>
-      <c r="M5" t="n">
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>71</v>
       </c>
-      <c r="O5" t="s">
-        <v>72</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>4</v>
-      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
       <c r="R5" t="n">
-        <v>3</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -2052,7 +2726,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
@@ -2068,34 +2742,34 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
         <v>74</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>75</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>76</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>77</v>
       </c>
-      <c r="L6" t="s">
-        <v>78</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>79</v>
-      </c>
       <c r="O6" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -2119,7 +2793,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -2135,62 +2809,58 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
         <v>81</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>82</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>77</v>
+      </c>
+      <c r="O7" t="s">
         <v>83</v>
       </c>
-      <c r="K7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>79</v>
-      </c>
-      <c r="O7" t="s">
-        <v>80</v>
-      </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>86</v>
-      </c>
-      <c r="X7" t="s">
-        <v>87</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
@@ -2206,7 +2876,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2215,39 +2885,49 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="O8" t="s">
-        <v>80</v>
-      </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
@@ -2263,7 +2943,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2272,49 +2952,53 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="O9" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="P9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>95</v>
+      </c>
+      <c r="X9" t="s">
+        <v>96</v>
+      </c>
       <c r="Y9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
@@ -2330,30 +3014,34 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" t="s">
         <v>102</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
-        <v>103</v>
-      </c>
-      <c r="J10" t="s">
-        <v>104</v>
-      </c>
-      <c r="K10" t="s"/>
-      <c r="L10" t="s"/>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="O10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2362,21 +3050,23 @@
         <v>5</v>
       </c>
       <c r="R10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
-      <c r="Y10" t="s"/>
+      <c r="Y10" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2391,53 +3081,59 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" t="s">
         <v>106</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="L11" t="s">
         <v>107</v>
       </c>
-      <c r="J11" t="s">
-        <v>108</v>
-      </c>
-      <c r="K11" t="s"/>
-      <c r="L11" t="s"/>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="O11" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="P11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
-      <c r="Y11" t="s"/>
+      <c r="Y11" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2452,62 +3148,58 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
         <v>110</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>111</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>112</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>113</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
         <v>114</v>
       </c>
-      <c r="M12" t="n">
-        <v>2</v>
-      </c>
-      <c r="N12" t="s">
-        <v>109</v>
-      </c>
       <c r="O12" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="P12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>115</v>
-      </c>
-      <c r="X12" t="s">
-        <v>116</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13">
@@ -2523,56 +3215,60 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" t="s">
         <v>118</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="L13" t="s">
         <v>119</v>
       </c>
-      <c r="J13" t="s">
-        <v>120</v>
-      </c>
-      <c r="K13" t="s">
-        <v>121</v>
-      </c>
-      <c r="L13" t="s">
-        <v>122</v>
-      </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="P13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>120</v>
+      </c>
+      <c r="X13" t="s">
+        <v>121</v>
+      </c>
       <c r="Y13" t="s">
         <v>122</v>
       </c>
@@ -2590,58 +3286,52 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
         <v>124</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>125</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>126</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>127</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
         <v>128</v>
       </c>
-      <c r="M14" t="n">
-        <v>2</v>
-      </c>
-      <c r="N14" t="s">
-        <v>129</v>
-      </c>
       <c r="O14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>130</v>
-      </c>
-      <c r="X14" t="s">
-        <v>131</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15">
@@ -2657,52 +3347,48 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" t="s">
         <v>133</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="L15" t="s">
         <v>134</v>
       </c>
-      <c r="J15" t="s">
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
         <v>135</v>
       </c>
-      <c r="K15" t="s">
-        <v>136</v>
-      </c>
-      <c r="L15" t="s">
-        <v>137</v>
-      </c>
-      <c r="M15" t="n">
-        <v>4</v>
-      </c>
-      <c r="N15" t="s">
-        <v>138</v>
-      </c>
       <c r="O15" t="s">
-        <v>65</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>4</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16">
@@ -2718,58 +3404,48 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>137</v>
+      </c>
+      <c r="J16" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" t="s">
         <v>139</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="L16" t="s">
         <v>140</v>
       </c>
-      <c r="J16" t="s">
-        <v>141</v>
-      </c>
-      <c r="K16" t="s">
-        <v>142</v>
-      </c>
-      <c r="L16" t="s">
-        <v>143</v>
-      </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O16" t="s">
-        <v>80</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>4</v>
-      </c>
-      <c r="R16" t="n">
-        <v>3</v>
-      </c>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>4</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17">
@@ -2785,52 +3461,58 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>142</v>
+      </c>
+      <c r="J17" t="s">
+        <v>143</v>
+      </c>
+      <c r="K17" t="s">
         <v>144</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="L17" t="s">
         <v>145</v>
       </c>
-      <c r="J17" t="s">
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
         <v>146</v>
       </c>
-      <c r="K17" t="s">
+      <c r="O17" t="s">
         <v>147</v>
       </c>
-      <c r="L17" t="s">
-        <v>148</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="s">
-        <v>149</v>
-      </c>
-      <c r="O17" t="s">
-        <v>53</v>
-      </c>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>150</v>
-      </c>
-      <c r="X17" t="s">
-        <v>151</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18">
@@ -2846,7 +3528,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2855,44 +3537,44 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="J18" t="s">
-        <v>155</v>
-      </c>
-      <c r="K18" t="s">
-        <v>156</v>
-      </c>
-      <c r="L18" t="s">
-        <v>157</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s"/>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="O18" t="s">
-        <v>72</v>
-      </c>
-      <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>159</v>
-      </c>
-      <c r="X18" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>161</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2907,7 +3589,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2916,31 +3598,35 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="J19" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="K19" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="L19" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="O19" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
       </c>
-      <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
       <c r="S19" t="n">
         <v>5</v>
       </c>
@@ -2954,7 +3640,7 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20">
@@ -2970,7 +3656,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2979,35 +3665,31 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="J20" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="K20" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="L20" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="O20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
       </c>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
       <c r="S20" t="n">
         <v>5</v>
       </c>
@@ -3021,7 +3703,7 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21">
@@ -3037,7 +3719,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3046,36 +3728,44 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="J21" t="s">
-        <v>175</v>
-      </c>
-      <c r="K21" t="s">
-        <v>176</v>
-      </c>
-      <c r="L21" t="s">
-        <v>177</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s"/>
       <c r="M21" t="n">
-        <v>4</v>
-      </c>
-      <c r="N21" t="s"/>
-      <c r="O21" t="s"/>
-      <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>165</v>
+      </c>
+      <c r="O21" t="s">
+        <v>64</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
-      <c r="Y21" t="s">
-        <v>177</v>
-      </c>
+      <c r="Y21" t="s"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3090,7 +3780,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3099,49 +3789,53 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="J22" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="K22" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="L22" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="O22" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="P22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>171</v>
+      </c>
+      <c r="X22" t="s">
+        <v>172</v>
+      </c>
       <c r="Y22" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23">
@@ -3157,7 +3851,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3166,25 +3860,25 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="J23" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="K23" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="L23" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="O23" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -3208,7 +3902,7 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24">
@@ -3224,7 +3918,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3233,43 +3927,43 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="J24" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="K24" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="L24" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="O24" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>196</v>
-      </c>
-      <c r="X24" t="s">
-        <v>197</v>
-      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25">
@@ -3285,7 +3979,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3294,37 +3988,37 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="J25" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="K25" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="L25" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="O25" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="P25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
@@ -3333,10 +4027,14 @@
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>171</v>
+      </c>
+      <c r="X25" t="s">
+        <v>172</v>
+      </c>
       <c r="Y25" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26">
@@ -3352,7 +4050,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3361,45 +4059,49 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="J26" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="K26" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="L26" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="O26" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
       </c>
       <c r="Q26" t="s"/>
-      <c r="R26" t="s"/>
-      <c r="S26" t="n">
-        <v>4</v>
-      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>197</v>
+      </c>
+      <c r="X26" t="s">
+        <v>198</v>
+      </c>
       <c r="Y26" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27">
@@ -3415,7 +4117,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3424,35 +4126,35 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="J27" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="K27" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="L27" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
-      </c>
-      <c r="P27" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
       <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -3460,7 +4162,7 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28">
@@ -3476,7 +4178,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3485,41 +4187,41 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="J28" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="K28" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="L28" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
       </c>
       <c r="Q28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -3527,7 +4229,7 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29">
@@ -3543,7 +4245,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3552,33 +4254,31 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="J29" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="K29" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="L29" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="O29" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
-      <c r="R29" t="n">
-        <v>3</v>
-      </c>
+      <c r="R29" t="s"/>
       <c r="S29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
@@ -3590,7 +4290,7 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30">
@@ -3606,7 +4306,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3615,53 +4315,49 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="J30" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="K30" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="L30" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="M30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="O30" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="P30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
-        <v>236</v>
-      </c>
-      <c r="X30" t="s">
-        <v>237</v>
-      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31">
@@ -3677,7 +4373,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3686,43 +4382,43 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="J31" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="K31" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="L31" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="O31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
-      <c r="S31" t="n">
-        <v>5</v>
-      </c>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>5</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>226</v>
+      </c>
+      <c r="X31" t="s">
+        <v>227</v>
+      </c>
       <c r="Y31" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32">
@@ -3738,7 +4434,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3747,22 +4443,26 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="J32" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="K32" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="L32" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="M32" t="n">
         <v>2</v>
       </c>
-      <c r="N32" t="s"/>
-      <c r="O32" t="s"/>
+      <c r="N32" t="s">
+        <v>234</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
@@ -3772,10 +4472,14 @@
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>235</v>
+      </c>
+      <c r="X32" t="s">
+        <v>236</v>
+      </c>
       <c r="Y32" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33">
@@ -3791,7 +4495,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3800,41 +4504,37 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="J33" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="K33" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="L33" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="M33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="P33" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>4</v>
-      </c>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
       <c r="S33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3842,7 +4542,7 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34">
@@ -3858,7 +4558,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3867,43 +4567,45 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="J34" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="K34" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="L34" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
-      <c r="R34" t="s"/>
-      <c r="S34" t="s"/>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
       <c r="T34" t="s"/>
-      <c r="U34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s">
-        <v>262</v>
-      </c>
-      <c r="X34" t="s">
-        <v>263</v>
-      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35">
@@ -3919,7 +4621,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3928,31 +4630,35 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="J35" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="K35" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="L35" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="O35" t="s">
-        <v>72</v>
-      </c>
-      <c r="P35" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
       <c r="Q35" t="n">
         <v>5</v>
       </c>
-      <c r="R35" t="s"/>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
       <c r="S35" t="n">
         <v>5</v>
       </c>
@@ -3966,7 +4672,7 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36">
@@ -3982,7 +4688,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3991,31 +4697,35 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="J36" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="K36" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="L36" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="O36" t="s">
-        <v>72</v>
-      </c>
-      <c r="P36" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
       <c r="Q36" t="n">
         <v>5</v>
       </c>
-      <c r="R36" t="s"/>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
       <c r="S36" t="n">
         <v>5</v>
       </c>
@@ -4029,7 +4739,7 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37">
@@ -4045,7 +4755,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4054,45 +4764,35 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="J37" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="K37" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="L37" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N37" t="s"/>
       <c r="O37" t="s"/>
-      <c r="P37" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>5</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5</v>
-      </c>
-      <c r="S37" t="n">
-        <v>5</v>
-      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>5</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38">
@@ -4108,7 +4808,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4117,25 +4817,25 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="J38" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="K38" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="L38" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="O38" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="P38" t="n">
         <v>4</v>
@@ -4159,7 +4859,7 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39">
@@ -4175,7 +4875,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4184,21 +4884,25 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="J39" t="s">
-        <v>290</v>
-      </c>
-      <c r="K39" t="s"/>
-      <c r="L39" t="s"/>
+        <v>273</v>
+      </c>
+      <c r="K39" t="s">
+        <v>274</v>
+      </c>
+      <c r="L39" t="s">
+        <v>275</v>
+      </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="O39" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4221,7 +4925,9 @@
       </c>
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
-      <c r="Y39" t="s"/>
+      <c r="Y39" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4236,7 +4942,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4245,25 +4951,25 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="J40" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="K40" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="L40" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4287,7 +4993,7 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41">
@@ -4303,7 +5009,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4312,25 +5018,25 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="J41" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="K41" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="L41" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="O41" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4354,7 +5060,7 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42">
@@ -4370,7 +5076,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4379,44 +5085,44 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="J42" t="s">
-        <v>305</v>
-      </c>
-      <c r="K42" t="s"/>
-      <c r="L42" t="s"/>
+        <v>289</v>
+      </c>
+      <c r="K42" t="s">
+        <v>290</v>
+      </c>
+      <c r="L42" t="s">
+        <v>291</v>
+      </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="O42" t="s">
-        <v>101</v>
-      </c>
-      <c r="P42" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>4</v>
-      </c>
-      <c r="R42" t="n">
-        <v>4</v>
-      </c>
-      <c r="S42" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>2</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
-      <c r="Y42" t="s"/>
+      <c r="W42" t="s">
+        <v>293</v>
+      </c>
+      <c r="X42" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4431,7 +5137,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4440,41 +5146,41 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="J43" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="K43" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="L43" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="O43" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="P43" t="n">
         <v>4</v>
       </c>
       <c r="Q43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R43" t="n">
         <v>4</v>
       </c>
       <c r="S43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -4482,7 +5188,7 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="44">
@@ -4498,7 +5204,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4507,30 +5213,28 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="J44" t="s">
-        <v>315</v>
-      </c>
-      <c r="K44" t="s">
-        <v>316</v>
-      </c>
-      <c r="L44" t="s">
-        <v>317</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="K44" t="s"/>
+      <c r="L44" t="s"/>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="O44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P44" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q44" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
       <c r="R44" t="n">
         <v>5</v>
       </c>
@@ -4546,9 +5250,7 @@
       </c>
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
-      <c r="Y44" t="s">
-        <v>317</v>
-      </c>
+      <c r="Y44" t="s"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4563,7 +5265,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4572,41 +5274,35 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="J45" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="K45" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="L45" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="O45" t="s">
-        <v>72</v>
-      </c>
-      <c r="P45" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>5</v>
-      </c>
-      <c r="R45" t="n">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
       <c r="S45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4614,7 +5310,7 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="46">
@@ -4630,7 +5326,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4639,41 +5335,37 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="J46" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="K46" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="L46" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="O46" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="P46" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>3</v>
-      </c>
-      <c r="R46" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
       <c r="S46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4681,7 +5373,7 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="47">
@@ -4697,7 +5389,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4706,53 +5398,43 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="J47" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="K47" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="L47" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="M47" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="O47" t="s">
-        <v>80</v>
-      </c>
-      <c r="P47" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>2</v>
-      </c>
-      <c r="R47" t="n">
-        <v>3</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
       <c r="S47" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s">
-        <v>337</v>
-      </c>
-      <c r="X47" t="s">
-        <v>338</v>
-      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
     </row>
     <row r="48">
@@ -4768,7 +5450,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4777,41 +5459,41 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="J48" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="K48" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="L48" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="O48" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="P48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
@@ -4819,7 +5501,7 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
     </row>
     <row r="49">
@@ -4835,7 +5517,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -4844,35 +5526,31 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="J49" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="K49" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="L49" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="O49" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P49" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>5</v>
-      </c>
-      <c r="R49" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
       <c r="S49" t="n">
         <v>5</v>
       </c>
@@ -4886,7 +5564,7 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
     </row>
     <row r="50">
@@ -4902,7 +5580,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -4911,28 +5589,28 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="J50" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="K50" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="L50" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="O50" t="s">
         <v>53</v>
       </c>
       <c r="P50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q50" t="n">
         <v>5</v>
@@ -4953,7 +5631,7 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
     </row>
     <row r="51">
@@ -4969,7 +5647,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -4978,33 +5656,33 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="J51" t="s">
-        <v>362</v>
-      </c>
-      <c r="K51" t="s"/>
-      <c r="L51" t="s"/>
+        <v>343</v>
+      </c>
+      <c r="K51" t="s">
+        <v>344</v>
+      </c>
+      <c r="L51" t="s">
+        <v>345</v>
+      </c>
       <c r="M51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
-      </c>
-      <c r="P51" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>5</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
       <c r="R51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
@@ -5015,7 +5693,9 @@
       </c>
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
-      <c r="Y51" t="s"/>
+      <c r="Y51" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5030,7 +5710,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5039,44 +5719,54 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="J52" t="s">
-        <v>365</v>
-      </c>
-      <c r="K52" t="s"/>
-      <c r="L52" t="s"/>
+        <v>349</v>
+      </c>
+      <c r="K52" t="s">
+        <v>350</v>
+      </c>
+      <c r="L52" t="s">
+        <v>351</v>
+      </c>
       <c r="M52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="O52" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="P52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
-      <c r="Y52" t="s"/>
+      <c r="W52" t="s">
+        <v>353</v>
+      </c>
+      <c r="X52" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5091,7 +5781,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5100,31 +5790,29 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J53" t="s">
-        <v>369</v>
-      </c>
-      <c r="K53" t="s"/>
-      <c r="L53" t="s"/>
+        <v>358</v>
+      </c>
+      <c r="K53" t="s">
+        <v>359</v>
+      </c>
+      <c r="L53" t="s">
+        <v>360</v>
+      </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="O53" t="s">
-        <v>80</v>
-      </c>
-      <c r="P53" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>5</v>
-      </c>
-      <c r="R53" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
       <c r="S53" t="n">
         <v>5</v>
       </c>
@@ -5137,7 +5825,9 @@
       </c>
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
-      <c r="Y53" t="s"/>
+      <c r="Y53" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5152,7 +5842,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5161,38 +5851,32 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="J54" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="K54" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="L54" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="M54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="O54" t="s">
         <v>53</v>
       </c>
-      <c r="P54" t="n">
-        <v>5</v>
-      </c>
+      <c r="P54" t="s"/>
       <c r="Q54" t="n">
         <v>5</v>
       </c>
-      <c r="R54" t="n">
-        <v>5</v>
-      </c>
-      <c r="S54" t="n">
-        <v>5</v>
-      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
         <v>5</v>
@@ -5203,7 +5887,7 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="55">
@@ -5219,7 +5903,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5228,21 +5912,25 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="J55" t="s">
-        <v>378</v>
-      </c>
-      <c r="K55" t="s"/>
-      <c r="L55" t="s"/>
+        <v>370</v>
+      </c>
+      <c r="K55" t="s">
+        <v>371</v>
+      </c>
+      <c r="L55" t="s">
+        <v>372</v>
+      </c>
       <c r="M55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5251,10 +5939,10 @@
         <v>5</v>
       </c>
       <c r="R55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
@@ -5265,7 +5953,9 @@
       </c>
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
-      <c r="Y55" t="s"/>
+      <c r="Y55" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5280,7 +5970,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5289,49 +5979,35 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="J56" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="K56" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="L56" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="M56" t="n">
-        <v>5</v>
-      </c>
-      <c r="N56" t="s">
-        <v>385</v>
-      </c>
-      <c r="O56" t="s">
-        <v>80</v>
-      </c>
-      <c r="P56" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>5</v>
-      </c>
-      <c r="R56" t="n">
-        <v>4</v>
-      </c>
-      <c r="S56" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
       <c r="T56" t="s"/>
-      <c r="U56" t="n">
-        <v>5</v>
-      </c>
+      <c r="U56" t="s"/>
       <c r="V56" t="n">
         <v>0</v>
       </c>
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="57">
@@ -5347,7 +6023,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5356,25 +6032,25 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="J57" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="K57" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="L57" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="M57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="O57" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="P57" t="n">
         <v>4</v>
@@ -5383,10 +6059,10 @@
         <v>4</v>
       </c>
       <c r="R57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
@@ -5398,7 +6074,7 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="58">
@@ -5414,7 +6090,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5423,44 +6099,44 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="J58" t="s">
-        <v>395</v>
-      </c>
-      <c r="K58" t="s"/>
-      <c r="L58" t="s"/>
+        <v>386</v>
+      </c>
+      <c r="K58" t="s">
+        <v>387</v>
+      </c>
+      <c r="L58" t="s">
+        <v>388</v>
+      </c>
       <c r="M58" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N58" t="s">
+        <v>367</v>
+      </c>
+      <c r="O58" t="s">
+        <v>71</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>389</v>
+      </c>
+      <c r="X58" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y58" t="s">
         <v>391</v>
       </c>
-      <c r="O58" t="s">
-        <v>72</v>
-      </c>
-      <c r="P58" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>5</v>
-      </c>
-      <c r="R58" t="n">
-        <v>4</v>
-      </c>
-      <c r="S58" t="n">
-        <v>5</v>
-      </c>
-      <c r="T58" t="s"/>
-      <c r="U58" t="n">
-        <v>5</v>
-      </c>
-      <c r="V58" t="n">
-        <v>0</v>
-      </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
-      <c r="Y58" t="s"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5475,56 +6151,54 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
+        <v>392</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>393</v>
+      </c>
+      <c r="J59" t="s">
+        <v>394</v>
+      </c>
+      <c r="K59" t="s">
+        <v>395</v>
+      </c>
+      <c r="L59" t="s">
         <v>396</v>
       </c>
-      <c r="G59" t="s">
-        <v>46</v>
-      </c>
-      <c r="H59" t="s">
-        <v>47</v>
-      </c>
-      <c r="I59" t="s">
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
         <v>397</v>
       </c>
-      <c r="J59" t="s">
-        <v>398</v>
-      </c>
-      <c r="K59" t="s">
-        <v>399</v>
-      </c>
-      <c r="L59" t="s">
-        <v>400</v>
-      </c>
-      <c r="M59" t="n">
-        <v>5</v>
-      </c>
-      <c r="N59" t="s">
-        <v>401</v>
-      </c>
       <c r="O59" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="P59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q59" t="n">
         <v>5</v>
       </c>
-      <c r="R59" t="n">
-        <v>5</v>
-      </c>
-      <c r="S59" t="n">
-        <v>5</v>
-      </c>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
       <c r="T59" t="s"/>
-      <c r="U59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
       <c r="V59" t="n">
         <v>0</v>
       </c>
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="60">
@@ -5540,37 +6214,37 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
+        <v>398</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>399</v>
+      </c>
+      <c r="J60" t="s">
+        <v>400</v>
+      </c>
+      <c r="K60" t="s">
+        <v>401</v>
+      </c>
+      <c r="L60" t="s">
         <v>402</v>
       </c>
-      <c r="G60" t="s">
-        <v>46</v>
-      </c>
-      <c r="H60" t="s">
-        <v>47</v>
-      </c>
-      <c r="I60" t="s">
-        <v>403</v>
-      </c>
-      <c r="J60" t="s">
-        <v>404</v>
-      </c>
-      <c r="K60" t="s">
-        <v>405</v>
-      </c>
-      <c r="L60" t="s">
-        <v>406</v>
-      </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="P60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q60" t="n">
         <v>5</v>
@@ -5579,7 +6253,7 @@
         <v>5</v>
       </c>
       <c r="S60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
@@ -5591,7 +6265,7 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="61">
@@ -5607,7 +6281,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -5616,41 +6290,37 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="J61" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="K61" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="L61" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="M61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="O61" t="s">
-        <v>80</v>
-      </c>
-      <c r="P61" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P61" t="s"/>
       <c r="Q61" t="n">
         <v>5</v>
       </c>
-      <c r="R61" t="n">
-        <v>5</v>
-      </c>
+      <c r="R61" t="s"/>
       <c r="S61" t="n">
         <v>5</v>
       </c>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
@@ -5658,7 +6328,2867 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>408</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>409</v>
+      </c>
+      <c r="J62" t="s">
+        <v>410</v>
+      </c>
+      <c r="K62" t="s">
+        <v>411</v>
+      </c>
+      <c r="L62" t="s">
+        <v>412</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>413</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
         <v>414</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>415</v>
+      </c>
+      <c r="J63" t="s">
+        <v>416</v>
+      </c>
+      <c r="K63" t="s">
+        <v>417</v>
+      </c>
+      <c r="L63" t="s">
+        <v>418</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>419</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>420</v>
+      </c>
+      <c r="J64" t="s">
+        <v>416</v>
+      </c>
+      <c r="K64" t="s">
+        <v>421</v>
+      </c>
+      <c r="L64" t="s">
+        <v>422</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>413</v>
+      </c>
+      <c r="O64" t="s">
+        <v>71</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>424</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>425</v>
+      </c>
+      <c r="J65" t="s">
+        <v>426</v>
+      </c>
+      <c r="K65" t="s">
+        <v>427</v>
+      </c>
+      <c r="L65" t="s">
+        <v>428</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>429</v>
+      </c>
+      <c r="O65" t="s">
+        <v>71</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>430</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>431</v>
+      </c>
+      <c r="J66" t="s">
+        <v>432</v>
+      </c>
+      <c r="K66" t="s">
+        <v>433</v>
+      </c>
+      <c r="L66" t="s">
+        <v>434</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>435</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>436</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>437</v>
+      </c>
+      <c r="J67" t="s">
+        <v>438</v>
+      </c>
+      <c r="K67" t="s"/>
+      <c r="L67" t="s"/>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>439</v>
+      </c>
+      <c r="O67" t="s">
+        <v>64</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>440</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>441</v>
+      </c>
+      <c r="J68" t="s">
+        <v>442</v>
+      </c>
+      <c r="K68" t="s">
+        <v>443</v>
+      </c>
+      <c r="L68" t="s">
+        <v>444</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>445</v>
+      </c>
+      <c r="O68" t="s">
+        <v>71</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>446</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>447</v>
+      </c>
+      <c r="J69" t="s">
+        <v>442</v>
+      </c>
+      <c r="K69" t="s">
+        <v>448</v>
+      </c>
+      <c r="L69" t="s">
+        <v>449</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>445</v>
+      </c>
+      <c r="O69" t="s">
+        <v>64</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>450</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>451</v>
+      </c>
+      <c r="J70" t="s">
+        <v>452</v>
+      </c>
+      <c r="K70" t="s">
+        <v>453</v>
+      </c>
+      <c r="L70" t="s">
+        <v>454</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>445</v>
+      </c>
+      <c r="O70" t="s">
+        <v>64</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>455</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>456</v>
+      </c>
+      <c r="J71" t="s">
+        <v>457</v>
+      </c>
+      <c r="K71" t="s">
+        <v>458</v>
+      </c>
+      <c r="L71" t="s">
+        <v>459</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>445</v>
+      </c>
+      <c r="O71" t="s">
+        <v>83</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>460</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>461</v>
+      </c>
+      <c r="J72" t="s">
+        <v>462</v>
+      </c>
+      <c r="K72" t="s"/>
+      <c r="L72" t="s"/>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>463</v>
+      </c>
+      <c r="O72" t="s">
+        <v>147</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>2</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>464</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>465</v>
+      </c>
+      <c r="J73" t="s">
+        <v>466</v>
+      </c>
+      <c r="K73" t="s">
+        <v>467</v>
+      </c>
+      <c r="L73" t="s">
+        <v>468</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>469</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>470</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>471</v>
+      </c>
+      <c r="J74" t="s">
+        <v>472</v>
+      </c>
+      <c r="K74" t="s"/>
+      <c r="L74" t="s"/>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>469</v>
+      </c>
+      <c r="O74" t="s">
+        <v>71</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>473</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>474</v>
+      </c>
+      <c r="J75" t="s">
+        <v>475</v>
+      </c>
+      <c r="K75" t="s">
+        <v>476</v>
+      </c>
+      <c r="L75" t="s">
+        <v>477</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>478</v>
+      </c>
+      <c r="O75" t="s">
+        <v>83</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>479</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>480</v>
+      </c>
+      <c r="J76" t="s">
+        <v>481</v>
+      </c>
+      <c r="K76" t="s">
+        <v>482</v>
+      </c>
+      <c r="L76" t="s">
+        <v>483</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>478</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>484</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>485</v>
+      </c>
+      <c r="J77" t="s">
+        <v>486</v>
+      </c>
+      <c r="K77" t="s">
+        <v>487</v>
+      </c>
+      <c r="L77" t="s">
+        <v>488</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>489</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>490</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>491</v>
+      </c>
+      <c r="J78" t="s">
+        <v>492</v>
+      </c>
+      <c r="K78" t="s">
+        <v>493</v>
+      </c>
+      <c r="L78" t="s">
+        <v>494</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s">
+        <v>489</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>496</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>497</v>
+      </c>
+      <c r="J79" t="s">
+        <v>498</v>
+      </c>
+      <c r="K79" t="s">
+        <v>499</v>
+      </c>
+      <c r="L79" t="s">
+        <v>500</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>501</v>
+      </c>
+      <c r="O79" t="s">
+        <v>147</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>502</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>503</v>
+      </c>
+      <c r="J80" t="s">
+        <v>504</v>
+      </c>
+      <c r="K80" t="s">
+        <v>505</v>
+      </c>
+      <c r="L80" t="s">
+        <v>506</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s">
+        <v>507</v>
+      </c>
+      <c r="O80" t="s">
+        <v>71</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>3</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>508</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>509</v>
+      </c>
+      <c r="J81" t="s">
+        <v>510</v>
+      </c>
+      <c r="K81" t="s">
+        <v>511</v>
+      </c>
+      <c r="L81" t="s">
+        <v>512</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
+        <v>507</v>
+      </c>
+      <c r="O81" t="s">
+        <v>64</v>
+      </c>
+      <c r="P81" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>2</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>513</v>
+      </c>
+      <c r="X81" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>516</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>517</v>
+      </c>
+      <c r="J82" t="s">
+        <v>518</v>
+      </c>
+      <c r="K82" t="s">
+        <v>519</v>
+      </c>
+      <c r="L82" t="s">
+        <v>520</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>521</v>
+      </c>
+      <c r="O82" t="s">
+        <v>64</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>522</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>523</v>
+      </c>
+      <c r="J83" t="s">
+        <v>524</v>
+      </c>
+      <c r="K83" t="s">
+        <v>525</v>
+      </c>
+      <c r="L83" t="s">
+        <v>526</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>527</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>529</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>530</v>
+      </c>
+      <c r="J84" t="s">
+        <v>531</v>
+      </c>
+      <c r="K84" t="s"/>
+      <c r="L84" t="s"/>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>527</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>532</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>533</v>
+      </c>
+      <c r="J85" t="s">
+        <v>534</v>
+      </c>
+      <c r="K85" t="s">
+        <v>535</v>
+      </c>
+      <c r="L85" t="s">
+        <v>536</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>527</v>
+      </c>
+      <c r="O85" t="s">
+        <v>71</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>537</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>538</v>
+      </c>
+      <c r="J86" t="s">
+        <v>539</v>
+      </c>
+      <c r="K86" t="s">
+        <v>540</v>
+      </c>
+      <c r="L86" t="s">
+        <v>541</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>542</v>
+      </c>
+      <c r="O86" t="s">
+        <v>71</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>544</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>545</v>
+      </c>
+      <c r="J87" t="s">
+        <v>546</v>
+      </c>
+      <c r="K87" t="s"/>
+      <c r="L87" t="s"/>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>542</v>
+      </c>
+      <c r="O87" t="s">
+        <v>71</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>547</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>548</v>
+      </c>
+      <c r="J88" t="s">
+        <v>549</v>
+      </c>
+      <c r="K88" t="s"/>
+      <c r="L88" t="s"/>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>550</v>
+      </c>
+      <c r="O88" t="s">
+        <v>64</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>551</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>552</v>
+      </c>
+      <c r="J89" t="s">
+        <v>553</v>
+      </c>
+      <c r="K89" t="s">
+        <v>554</v>
+      </c>
+      <c r="L89" t="s">
+        <v>555</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>550</v>
+      </c>
+      <c r="O89" t="s">
+        <v>71</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>557</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>558</v>
+      </c>
+      <c r="J90" t="s">
+        <v>559</v>
+      </c>
+      <c r="K90" t="s">
+        <v>560</v>
+      </c>
+      <c r="L90" t="s">
+        <v>561</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>562</v>
+      </c>
+      <c r="O90" t="s">
+        <v>64</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>563</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>564</v>
+      </c>
+      <c r="J91" t="s">
+        <v>565</v>
+      </c>
+      <c r="K91" t="s"/>
+      <c r="L91" t="s"/>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>562</v>
+      </c>
+      <c r="O91" t="s">
+        <v>64</v>
+      </c>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>566</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>567</v>
+      </c>
+      <c r="J92" t="s">
+        <v>568</v>
+      </c>
+      <c r="K92" t="s">
+        <v>569</v>
+      </c>
+      <c r="L92" t="s">
+        <v>570</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>562</v>
+      </c>
+      <c r="O92" t="s">
+        <v>71</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>571</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>572</v>
+      </c>
+      <c r="J93" t="s">
+        <v>573</v>
+      </c>
+      <c r="K93" t="s"/>
+      <c r="L93" t="s"/>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>574</v>
+      </c>
+      <c r="O93" t="s">
+        <v>71</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>3</v>
+      </c>
+      <c r="S93" t="n">
+        <v>4</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>575</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>576</v>
+      </c>
+      <c r="J94" t="s">
+        <v>577</v>
+      </c>
+      <c r="K94" t="s"/>
+      <c r="L94" t="s"/>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>574</v>
+      </c>
+      <c r="O94" t="s">
+        <v>71</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>3</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>578</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>579</v>
+      </c>
+      <c r="J95" t="s">
+        <v>580</v>
+      </c>
+      <c r="K95" t="s">
+        <v>581</v>
+      </c>
+      <c r="L95" t="s">
+        <v>582</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>583</v>
+      </c>
+      <c r="O95" t="s">
+        <v>64</v>
+      </c>
+      <c r="P95" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>4</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>584</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>585</v>
+      </c>
+      <c r="J96" t="s">
+        <v>586</v>
+      </c>
+      <c r="K96" t="s">
+        <v>587</v>
+      </c>
+      <c r="L96" t="s">
+        <v>588</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>589</v>
+      </c>
+      <c r="O96" t="s">
+        <v>64</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>590</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>591</v>
+      </c>
+      <c r="J97" t="s">
+        <v>592</v>
+      </c>
+      <c r="K97" t="s">
+        <v>593</v>
+      </c>
+      <c r="L97" t="s">
+        <v>594</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>595</v>
+      </c>
+      <c r="O97" t="s">
+        <v>64</v>
+      </c>
+      <c r="P97" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>4</v>
+      </c>
+      <c r="R97" t="n">
+        <v>2</v>
+      </c>
+      <c r="S97" t="n">
+        <v>4</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>4</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>597</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>598</v>
+      </c>
+      <c r="J98" t="s">
+        <v>599</v>
+      </c>
+      <c r="K98" t="s"/>
+      <c r="L98" t="s"/>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>595</v>
+      </c>
+      <c r="O98" t="s">
+        <v>53</v>
+      </c>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>600</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>601</v>
+      </c>
+      <c r="J99" t="s">
+        <v>602</v>
+      </c>
+      <c r="K99" t="s">
+        <v>603</v>
+      </c>
+      <c r="L99" t="s">
+        <v>604</v>
+      </c>
+      <c r="M99" t="n">
+        <v>4</v>
+      </c>
+      <c r="N99" t="s">
+        <v>605</v>
+      </c>
+      <c r="O99" t="s">
+        <v>71</v>
+      </c>
+      <c r="P99" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>3</v>
+      </c>
+      <c r="R99" t="n">
+        <v>3</v>
+      </c>
+      <c r="S99" t="n">
+        <v>4</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>4</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>606</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>607</v>
+      </c>
+      <c r="J100" t="s">
+        <v>608</v>
+      </c>
+      <c r="K100" t="s"/>
+      <c r="L100" t="s"/>
+      <c r="M100" t="n">
+        <v>4</v>
+      </c>
+      <c r="N100" t="s">
+        <v>609</v>
+      </c>
+      <c r="O100" t="s">
+        <v>64</v>
+      </c>
+      <c r="P100" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>4</v>
+      </c>
+      <c r="R100" t="s"/>
+      <c r="S100" t="n">
+        <v>4</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>610</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>611</v>
+      </c>
+      <c r="J101" t="s">
+        <v>612</v>
+      </c>
+      <c r="K101" t="s">
+        <v>613</v>
+      </c>
+      <c r="L101" t="s">
+        <v>614</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>615</v>
+      </c>
+      <c r="O101" t="s">
+        <v>64</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="s"/>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>616</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>617</v>
+      </c>
+      <c r="J102" t="s">
+        <v>618</v>
+      </c>
+      <c r="K102" t="s">
+        <v>619</v>
+      </c>
+      <c r="L102" t="s">
+        <v>620</v>
+      </c>
+      <c r="M102" t="n">
+        <v>4</v>
+      </c>
+      <c r="N102" t="s">
+        <v>621</v>
+      </c>
+      <c r="O102" t="s">
+        <v>71</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>4</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>622</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>623</v>
+      </c>
+      <c r="J103" t="s">
+        <v>624</v>
+      </c>
+      <c r="K103" t="s">
+        <v>625</v>
+      </c>
+      <c r="L103" t="s">
+        <v>626</v>
+      </c>
+      <c r="M103" t="n">
+        <v>4</v>
+      </c>
+      <c r="N103" t="s">
+        <v>627</v>
+      </c>
+      <c r="O103" t="s">
+        <v>64</v>
+      </c>
+      <c r="P103" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>3</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>629</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>630</v>
+      </c>
+      <c r="J104" t="s">
+        <v>631</v>
+      </c>
+      <c r="K104" t="s">
+        <v>632</v>
+      </c>
+      <c r="L104" t="s">
+        <v>633</v>
+      </c>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="s">
+        <v>634</v>
+      </c>
+      <c r="O104" t="s">
+        <v>71</v>
+      </c>
+      <c r="P104" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>5</v>
+      </c>
+      <c r="R104" t="n">
+        <v>5</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>59208</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>636</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>637</v>
+      </c>
+      <c r="J105" t="s">
+        <v>638</v>
+      </c>
+      <c r="K105" t="s">
+        <v>639</v>
+      </c>
+      <c r="L105" t="s">
+        <v>640</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s">
+        <v>641</v>
+      </c>
+      <c r="O105" t="s">
+        <v>71</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>4</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>642</v>
       </c>
     </row>
   </sheetData>
